--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail0 Features.xlsx
@@ -2155,7 +2155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2166,29 +2166,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2209,115 +2207,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2334,72 +2322,66 @@
         <v>1.292207794757567e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5401536513497973</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.021478932982377</v>
+        <v>2.017221477461717e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.03909990478198511</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.017221477461717e-06</v>
+        <v>0.1416961251427221</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03909990478198511</v>
+        <v>0.02158028677836073</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1416961251427221</v>
+        <v>1.892288911967428</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02158028677836073</v>
+        <v>2.728839187108377</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.904575388994654</v>
+        <v>5.991414563656134</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.728839187108377</v>
+        <v>2.567959788662451e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.991414563656134</v>
+        <v>5701635212.476888</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.567959788662451e-17</v>
+        <v>2.098888473375397e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5701635212.476888</v>
+        <v>834.8089082286855</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.098888473375397e-08</v>
+        <v>6.095482805611015e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>834.8089082286855</v>
+        <v>8.020653235995738</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.095482805611015e-05</v>
+        <v>1.511716640584066</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.020653235995738</v>
+        <v>0.003921277627431021</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.511716640584066</v>
+        <v>5.128580701056551</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.003921277627431021</v>
+        <v>0.9572666358024002</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.128580701056551</v>
+        <v>1.133855810148134</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9572666358024002</v>
+        <v>144</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.133855810148134</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.339055792930045</v>
       </c>
     </row>
@@ -2414,72 +2396,66 @@
         <v>1.290298425900185e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6078573477287476</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9389117049187652</v>
+        <v>2.012793554258687e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.03012852193757262</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.012793554258687e-06</v>
+        <v>0.1260552561351468</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03012852193757262</v>
+        <v>0.01678556857680684</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1260552561351468</v>
+        <v>1.896979646087764</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01678556857680684</v>
+        <v>2.811069980232146</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.904138582159179</v>
+        <v>5.901201704328821</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.811069980232146</v>
+        <v>2.647073754362325e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.901201704328821</v>
+        <v>5411584829.26106</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.647073754362325e-17</v>
+        <v>2.213221577876923e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>5411584829.26106</v>
+        <v>775.202176292377</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.213221577876923e-08</v>
+        <v>5.416604277222831e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>775.202176292377</v>
+        <v>8.605083198144799</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>5.416604277222831e-05</v>
+        <v>1.627167379572147</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.605083198144799</v>
+        <v>0.004010857714749003</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.627167379572147</v>
+        <v>5.359683710194698</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.004010857714749003</v>
+        <v>0.9587005377542469</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.359683710194698</v>
+        <v>1.171226468978618</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9587005377542469</v>
+        <v>153</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.171226468978618</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>2.774100527685611</v>
       </c>
     </row>
@@ -2494,72 +2470,66 @@
         <v>1.295362224433637e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6615194718517518</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8927991852972048</v>
+        <v>2.009314107386341e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.02423260976078374</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.009314107386341e-06</v>
+        <v>0.1186599439488913</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02423260976078374</v>
+        <v>0.01466320368192438</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1186599439488913</v>
+        <v>1.897925212046372</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01466320368192438</v>
+        <v>2.54995914065267</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.904828461752654</v>
+        <v>5.898666095395704</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.54995914065267</v>
+        <v>2.649349993211055e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.898666095395704</v>
+        <v>5388463654.122716</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.649349993211055e-17</v>
+        <v>2.220237224673941e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5388463654.122716</v>
+        <v>769.2530916379469</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.220237224673941e-08</v>
+        <v>5.45597862174144e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>769.2530916379469</v>
+        <v>12.05309545424114</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>5.45597862174144e-05</v>
+        <v>1.286186808477197</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.05309545424114</v>
+        <v>0.007926288065468669</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.286186808477197</v>
+        <v>5.533125575778449</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007926288065468669</v>
+        <v>0.9566880356826651</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.533125575778449</v>
+        <v>1.196896624730719</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9566880356826651</v>
+        <v>185</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.196896624730719</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.576021837156025</v>
       </c>
     </row>
@@ -2574,72 +2544,66 @@
         <v>1.302642397206402e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7029108657589971</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8675147679587081</v>
+        <v>2.006400985195377e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.02108265418756353</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.006400985195377e-06</v>
+        <v>0.1161579692578154</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02108265418756353</v>
+        <v>0.01393650186249186</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1161579692578154</v>
+        <v>1.895203543578577</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01393650186249186</v>
+        <v>2.512368166128164</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.899742435225821</v>
+        <v>5.689902378812393</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.512368166128164</v>
+        <v>3.165551691002222e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.689902378812393</v>
+        <v>4520728607.990167</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.165551691002222e-17</v>
+        <v>2.629705957524851e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>4520728607.990167</v>
+        <v>646.9433922249533</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.629705957524851e-08</v>
+        <v>5.311157280544086e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>646.9433922249533</v>
+        <v>12.81494367558508</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>5.311157280544086e-05</v>
+        <v>1.103247680123722</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.81494367558508</v>
+        <v>0.008722130211085189</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.103247680123722</v>
+        <v>5.497622721764368</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008722130211085189</v>
+        <v>0.9556682378677624</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.497622721764368</v>
+        <v>1.189316382564537</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9556682378677624</v>
+        <v>185</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.189316382564537</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.742455752108889</v>
       </c>
     </row>
@@ -2654,72 +2618,66 @@
         <v>1.310205003356462e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.739335709942422</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8472047458782983</v>
+        <v>2.003716719022445e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.02038102273617761</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.003716719022445e-06</v>
+        <v>0.1153868190687118</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02038102273617761</v>
+        <v>0.01372950911892554</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1153868190687118</v>
+        <v>1.882763981510803</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01372950911892554</v>
+        <v>2.472977226771768</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.884041519911092</v>
+        <v>5.957377901572219</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.472977226771768</v>
+        <v>2.887677839398421e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.957377901572219</v>
+        <v>4793507147.461824</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.887677839398421e-17</v>
+        <v>2.472215887946449e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>4793507147.461824</v>
+        <v>663.5222619862737</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.472215887946449e-08</v>
+        <v>5.442057384210453e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>663.5222619862737</v>
+        <v>10.14207831263808</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>5.442057384210453e-05</v>
+        <v>1.226927292621511</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.14207831263808</v>
+        <v>0.005597795597437318</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.226927292621511</v>
+        <v>5.37362079042302</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.005597795597437318</v>
+        <v>0.9552248001277093</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.37362079042302</v>
+        <v>1.204484720404731</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9552248001277093</v>
+        <v>206</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.204484720404731</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>2.988042397806384</v>
       </c>
     </row>
@@ -2734,72 +2692,66 @@
         <v>1.317003105678436e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7781945534985538</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8191768503082759</v>
+        <v>2.000969627359043e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.02175453335138191</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.000969627359043e-06</v>
+        <v>0.1138633824227998</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02175453335138191</v>
+        <v>0.01343670072464391</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1138633824227998</v>
+        <v>1.880428792542685</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01343670072464391</v>
+        <v>2.376350741646944</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.881509461840087</v>
+        <v>6.429003787710905</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.376350741646944</v>
+        <v>2.396990337926431e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.429003787710905</v>
+        <v>5808015917.814468</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.396990337926431e-17</v>
+        <v>2.042877020412493e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>5808015917.814468</v>
+        <v>808.5779228590202</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.042877020412493e-08</v>
+        <v>4.334253351366427e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>808.5779228590202</v>
+        <v>8.055122106321091</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>4.334253351366427e-05</v>
+        <v>1.399311236868908</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.055122106321091</v>
+        <v>0.002812279946697382</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.399311236868908</v>
+        <v>5.50243014132252</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.002812279946697382</v>
+        <v>0.9571215023660897</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>5.50243014132252</v>
+        <v>1.233457698647171</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9571215023660897</v>
+        <v>206</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.233457698647171</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.859629321263643</v>
       </c>
     </row>
@@ -2814,72 +2766,66 @@
         <v>1.321526103323804e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.8267970293967331</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.7677192598634495</v>
+        <v>1.997895627017876e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.02512997524739001</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.997895627017876e-06</v>
+        <v>0.1092972499679284</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02512997524739001</v>
+        <v>0.01257272688187047</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1092972499679284</v>
+        <v>1.880749954179369</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01257272688187047</v>
+        <v>2.680982950304799</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.883845870289607</v>
+        <v>6.243319465427888</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.680982950304799</v>
+        <v>2.281665860823711e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>6.243319465427888</v>
+        <v>6048963832.319485</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.281665860823711e-17</v>
+        <v>1.95945398467301e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>6048963832.319485</v>
+        <v>834.860704405806</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.95945398467301e-08</v>
+        <v>3.870891354835072e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>834.860704405806</v>
+        <v>5.895217612432974</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3.870891354835072e-05</v>
+        <v>2.201999598541663</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>5.895217612432974</v>
+        <v>0.001345273737821323</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>2.201999598541663</v>
+        <v>5.637915838091719</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.001345273737821323</v>
+        <v>0.9591486815506689</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.637915838091719</v>
+        <v>1.267083819204681</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9591486815506689</v>
+        <v>206</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.267083819204681</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>2.905758979763567</v>
       </c>
     </row>
@@ -2894,72 +2840,66 @@
         <v>1.321020629003701e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.8912630077944326</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.6710483012349489</v>
+        <v>1.994257283784727e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.03003141448757123</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.994257283784727e-06</v>
+        <v>0.1008990259968876</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03003141448757123</v>
+        <v>0.0110761650438995</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1008990259968876</v>
+        <v>1.864532844122922</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0110761650438995</v>
+        <v>2.38019731834442</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.862304408688288</v>
+        <v>6.456262465614255</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.38019731834442</v>
+        <v>2.847418261504191e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>6.456262465614255</v>
+        <v>4840449832.160303</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.847418261504191e-17</v>
+        <v>2.435790362043269e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>4840449832.160303</v>
+        <v>667.148805306448</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.435790362043269e-08</v>
+        <v>4.534984489470016e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>667.148805306448</v>
+        <v>6.019291620634113</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>4.534984489470016e-05</v>
+        <v>1.766022335286437</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.019291620634113</v>
+        <v>0.001643109757950294</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.766022335286437</v>
+        <v>5.413995573783979</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.001643109757950294</v>
+        <v>0.9586488156734703</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.413995573783979</v>
+        <v>1.242043641179999</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9586488156734703</v>
+        <v>205</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.242043641179999</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>205</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>2.845129582435134</v>
       </c>
     </row>
@@ -2974,72 +2914,66 @@
         <v>1.312309841962484e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.971983554245694</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.5126584652787041</v>
+        <v>1.989935990810069e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.03564807887145574</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.989935990810069e-06</v>
+        <v>0.09078616141354323</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03564807887145574</v>
+        <v>0.009505964644969939</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09078616141354323</v>
+        <v>1.866080518318671</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.009505964644969939</v>
+        <v>2.464127699522545</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.86789952008505</v>
+        <v>5.259449782664817</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.464127699522545</v>
+        <v>4.465588380978506e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.259449782664817</v>
+        <v>3206118895.08055</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.465588380978506e-17</v>
+        <v>3.679258427120144e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>3206118895.08055</v>
+        <v>459.0266880413247</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.679258427120144e-08</v>
+        <v>7.064163416500288e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>459.0266880413247</v>
+        <v>7.588550361806838</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>7.064163416500288e-05</v>
+        <v>1.779280163093505</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.588550361806838</v>
+        <v>0.004067975968561168</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.779280163093505</v>
+        <v>4.914735150108744</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.004067975968561168</v>
+        <v>0.958886720126524</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.914735150108744</v>
+        <v>1.32682892349871</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.958886720126524</v>
+        <v>205</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.32682892349871</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>205</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>2.422541921815585</v>
       </c>
     </row>
@@ -3054,72 +2988,66 @@
         <v>1.291860636060649e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.064001149176689</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.2887918345394063</v>
+        <v>1.984861328250807e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.04243214970606039</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.984861328250807e-06</v>
+        <v>0.07676120785320555</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04243214970606039</v>
+        <v>0.007684260598611381</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.07676120785320555</v>
+        <v>1.869596824298092</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.007684260598611381</v>
+        <v>2.518937260422567</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.86968019599544</v>
+        <v>4.987360460400208</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.518937260422567</v>
+        <v>4.966126740591847e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.987360460400208</v>
+        <v>2904682051.390692</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.966126740591847e-17</v>
+        <v>4.093364760561898e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>2904682051.390692</v>
+        <v>419.0009438539774</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.093364760561898e-08</v>
+        <v>0.0001016839071755302</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>419.0009438539774</v>
+        <v>7.780745112816008</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001016839071755302</v>
+        <v>1.592330909560868</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.780745112816008</v>
+        <v>0.006155943182223998</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.592330909560868</v>
+        <v>4.073122508766939</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006155943182223998</v>
+        <v>0.9584842901228189</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.073122508766939</v>
+        <v>1.325919465054142</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9584842901228189</v>
+        <v>185</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.325919465054142</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.438354201202653</v>
       </c>
     </row>
@@ -3134,72 +3062,66 @@
         <v>1.255352826790994e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.155516527449984</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.02457342726397904</v>
+        <v>1.978991048990267e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.0494421886269136</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.978991048990267e-06</v>
+        <v>0.06274751013049816</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.0494421886269136</v>
+        <v>0.006378245131540655</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.06274751013049816</v>
+        <v>1.873234694453164</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.006378245131540655</v>
+        <v>2.417542287238811</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.875208111692205</v>
+        <v>5.05500902963772</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.417542287238811</v>
+        <v>4.834097921231891e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.05500902963772</v>
+        <v>2984990187.292268</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.834097921231891e-17</v>
+        <v>3.979548763654582e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>2984990187.292268</v>
+        <v>430.7261696020132</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.979548763654582e-08</v>
+        <v>0.000120606075013101</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>430.7261696020132</v>
+        <v>8.563543379991707</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000120606075013101</v>
+        <v>1.367009581085207</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.563543379991707</v>
+        <v>0.008844559098335291</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.367009581085207</v>
+        <v>3.529387050875478</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008844559098335291</v>
+        <v>0.9588169138100877</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.529387050875478</v>
+        <v>1.266950226688957</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9588169138100877</v>
+        <v>178</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.266950226688957</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>178</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.9259632654419719</v>
       </c>
     </row>
@@ -3214,72 +3136,66 @@
         <v>1.203747338735749e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.232921468946486</v>
+        <v>4.002737314915994e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.2232781450238539</v>
+        <v>1.972565036020026e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.002737314915994e-07</v>
+        <v>-0.05466583269453967</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.972565036020026e-06</v>
+        <v>0.05918880290405395</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05466583269453967</v>
+        <v>0.006491693834344585</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.05918880290405395</v>
+        <v>1.880301688661836</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.006491693834344585</v>
+        <v>2.573832293063889</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.879208192028945</v>
+        <v>5.087662072557462</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.573832293063889</v>
+        <v>4.772245752685028e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.087662072557462</v>
+        <v>2901298880.620112</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.772245752685028e-17</v>
+        <v>4.101316878768203e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>2901298880.620112</v>
+        <v>401.7054658092424</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.101316878768203e-08</v>
+        <v>0.0001204713994081491</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>401.7054658092424</v>
+        <v>8.721727222982004</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001204713994081491</v>
+        <v>1.348315457416589</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.721727222982004</v>
+        <v>0.009164081748270965</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.348315457416589</v>
+        <v>3.436815976662032</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.009164081748270965</v>
+        <v>0.9586083057689085</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.436815976662032</v>
+        <v>1.291133088236075</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9586083057689085</v>
+        <v>185</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.291133088236075</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.7746463711347609</v>
       </c>
     </row>
@@ -3294,72 +3210,66 @@
         <v>1.142654899414172e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.293290687547439</v>
+        <v>3.988156264822106e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.4251933962659065</v>
+        <v>1.965930446696151e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.988156264822106e-07</v>
+        <v>-0.0581688762390538</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.965930446696151e-06</v>
+        <v>0.06175481614303985</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0581688762390538</v>
+        <v>0.007197459639019335</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.06175481614303985</v>
+        <v>1.88044733859392</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.007197459639019335</v>
+        <v>2.688788954980617</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.879937846106485</v>
+        <v>5.034454070808532</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.688788954980617</v>
+        <v>4.873652370739849e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.034454070808532</v>
+        <v>2830074646.950718</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.873652370739849e-17</v>
+        <v>4.196887810685336e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>2830074646.950718</v>
+        <v>390.3465362578715</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.196887810685336e-08</v>
+        <v>0.000111469022122846</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>390.3465362578715</v>
+        <v>8.349375739171803</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000111469022122846</v>
+        <v>1.338174329402099</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.349375739171803</v>
+        <v>0.007770736856473839</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.338174329402099</v>
+        <v>3.579531216436694</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.007770736856473839</v>
+        <v>0.9566917547286564</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.579531216436694</v>
+        <v>1.284163244084143</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9566917547286564</v>
+        <v>188</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.284163244084143</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.806709979481509</v>
       </c>
     </row>
@@ -3374,72 +3284,66 @@
         <v>1.077188993258905e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.339981421037567</v>
+        <v>3.914657069088141e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.5823277971556431</v>
+        <v>1.959333434578708e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.914657069088141e-07</v>
+        <v>-0.06057154663570127</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.959333434578708e-06</v>
+        <v>0.06539495040996191</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06057154663570127</v>
+        <v>0.007944715218313686</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.06539495040996191</v>
+        <v>1.882996326580834</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.007944715218313686</v>
+        <v>2.573676487535255</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.882147750996705</v>
+        <v>4.926375405418453</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.573676487535255</v>
+        <v>5.089842081337748e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.926375405418453</v>
+        <v>2669257324.952698</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.089842081337748e-17</v>
+        <v>4.451445959229847e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>2669257324.952698</v>
+        <v>362.6479229393018</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.451445959229847e-08</v>
+        <v>0.0001069558490256383</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>362.6479229393018</v>
+        <v>7.133226418764334</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001069558490256383</v>
+        <v>1.375663285879867</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.133226418764334</v>
+        <v>0.005442225817666789</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.375663285879867</v>
+        <v>3.80179244692834</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.005442225817666789</v>
+        <v>0.9575475200148917</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.80179244692834</v>
+        <v>1.290730051693857</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9575475200148917</v>
+        <v>149</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.290730051693857</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>149</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.8281051466299514</v>
       </c>
     </row>
@@ -3454,72 +3358,66 @@
         <v>1.010657134700503e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.376677806282561</v>
+        <v>3.77915152070684e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.7034830539498405</v>
+        <v>1.952915396217026e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.77915152070684e-07</v>
+        <v>-0.06232731762301223</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.952915396217026e-06</v>
+        <v>0.06863093989170814</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06232731762301223</v>
+        <v>0.008593163048263325</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.06863093989170814</v>
+        <v>1.88102623052038</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.008593163048263325</v>
+        <v>2.588571497080332</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.882396564643699</v>
+        <v>4.834328244053031</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.588571497080332</v>
+        <v>5.285511774912292e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.834328244053031</v>
+        <v>2492298136.31456</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.285511774912292e-17</v>
+        <v>4.74579256902292e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>2492298136.31456</v>
+        <v>328.3122066692071</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.74579256902292e-08</v>
+        <v>0.0001178540682746889</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>328.3122066692071</v>
+        <v>7.426352356762353</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001178540682746889</v>
+        <v>1.465687752034146</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.426352356762353</v>
+        <v>0.006499735462397002</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.465687752034146</v>
+        <v>3.710106324774984</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.006499735462397002</v>
+        <v>0.9584634288361316</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.710106324774984</v>
+        <v>1.310449941538397</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9584634288361316</v>
+        <v>135</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.310449941538397</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.8007945052401568</v>
       </c>
     </row>
@@ -3534,72 +3432,66 @@
         <v>9.451817730145357e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.406579635249567</v>
+        <v>3.607911413410021e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.7991241109836302</v>
+        <v>1.946756596656873e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.607911413410021e-07</v>
+        <v>-0.06362707030853677</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.946756596656873e-06</v>
+        <v>0.07114038618043646</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06362707030853677</v>
+        <v>0.009106749952174139</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.07114038618043646</v>
+        <v>1.878430181424416</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.009106749952174139</v>
+        <v>2.431423209169211</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.88109185313325</v>
+        <v>4.808170592091068</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.431423209169211</v>
+        <v>5.34317722167372e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.808170592091068</v>
+        <v>2472487125.002023</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.34317722167372e-17</v>
+        <v>4.782813940810703e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>2472487125.002023</v>
+        <v>326.638713627974</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.782813940810703e-08</v>
+        <v>0.0001268802832092623</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>326.638713627974</v>
+        <v>8.89137552056844</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001268802832092623</v>
+        <v>1.179374899045861</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.89137552056844</v>
+        <v>0.01003071855077791</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.179374899045861</v>
+        <v>3.396776902360862</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01003071855077791</v>
+        <v>0.9589233780365708</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.396776902360862</v>
+        <v>1.321936347111442</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9589233780365708</v>
+        <v>128</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.321936347111442</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.7499442538558745</v>
       </c>
     </row>
@@ -3614,72 +3506,66 @@
         <v>8.820610213492053e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.432105620773383</v>
+        <v>3.423917819058745e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.8788635302770498</v>
+        <v>1.940895621189562e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.423917819058745e-07</v>
+        <v>-0.06470466400517545</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.940895621189562e-06</v>
+        <v>0.07306107529435039</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.06470466400517545</v>
+        <v>0.009521290946291883</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.07306107529435039</v>
+        <v>1.877513785906025</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.009521290946291883</v>
+        <v>2.610003182084657</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.881002852881742</v>
+        <v>4.791635191111808</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.610003182084657</v>
+        <v>5.380118274185436e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.791635191111808</v>
+        <v>2572838440.701926</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>5.380118274185436e-17</v>
+        <v>4.613425316596971e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>2572838440.701926</v>
+        <v>356.1368022940152</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.613425316596971e-08</v>
+        <v>0.000132814002060984</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>356.1368022940152</v>
+        <v>9.394188580128215</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.000132814002060984</v>
+        <v>1.177198501880855</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.394188580128215</v>
+        <v>0.01172093915448326</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.177198501880855</v>
+        <v>3.195599037986552</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01172093915448326</v>
+        <v>0.9583653934934473</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.195599037986552</v>
+        <v>1.277321233495699</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9583653934934473</v>
+        <v>147</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.277321233495699</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>147</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.7071212782162283</v>
       </c>
     </row>
@@ -3694,72 +3580,66 @@
         <v>8.220161326075769e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.454873246823635</v>
+        <v>3.236016152678778e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.9504166151722586</v>
+        <v>1.935345540050375e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.236016152678778e-07</v>
+        <v>-0.06562130833038524</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.935345540050375e-06</v>
+        <v>0.07456584207844617</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.06562130833038524</v>
+        <v>0.009862453270013944</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.07456584207844617</v>
+        <v>1.877171207365748</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.009862453270013944</v>
+        <v>2.627663065643376</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.88796133603714</v>
+        <v>4.707650160036546</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.627663065643376</v>
+        <v>5.573794485501903e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.707650160036546</v>
+        <v>2579688229.422131</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.573794485501903e-17</v>
+        <v>4.604329738963565e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>2579688229.422131</v>
+        <v>370.9243939021391</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.604329738963565e-08</v>
+        <v>0.0001258822173678298</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>370.9243939021391</v>
+        <v>8.690709526426534</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001258822173678298</v>
+        <v>1.224751865810981</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.690709526426534</v>
+        <v>0.00950768650362962</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.224751865810981</v>
+        <v>3.367622711438119</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.00950768650362962</v>
+        <v>0.958450329070219</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.367622711438119</v>
+        <v>1.258055576975408</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.958450329070219</v>
+        <v>117</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.258055576975408</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.7697925479026484</v>
       </c>
     </row>
@@ -3774,72 +3654,66 @@
         <v>7.653153369947585e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.475819668526747</v>
+        <v>3.050785866360564e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1.019014772108744</v>
+        <v>1.930107614428903e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.050785866360564e-07</v>
+        <v>-0.0664490308483182</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.930107614428903e-06</v>
+        <v>0.07590818610190912</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.0664490308483182</v>
+        <v>0.01017347006469012</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.07590818610190912</v>
+        <v>1.881141168603606</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01017347006469012</v>
+        <v>2.661739506440474</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.90251069381251</v>
+        <v>4.828749220864346</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.661739506440474</v>
+        <v>5.29773234229864e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.828749220864346</v>
+        <v>2764814613.477138</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>5.29773234229864e-17</v>
+        <v>4.319436022196391e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>2764814613.477138</v>
+        <v>404.9692475989913</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.319436022196391e-08</v>
+        <v>0.000124106533924826</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>404.9692475989913</v>
+        <v>7.981273843064341</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.000124106533924826</v>
+        <v>1.386732043652848</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.981273843064341</v>
+        <v>0.007905677076600975</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.386732043652848</v>
+        <v>3.61100927090973</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.007905677076600975</v>
+        <v>0.9592134394267599</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.61100927090973</v>
+        <v>1.259610279017111</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9592134394267599</v>
+        <v>136</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.259610279017111</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.9138867084612132</v>
       </c>
     </row>
@@ -3854,72 +3728,66 @@
         <v>7.120387368007767e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.495070317980831</v>
+        <v>2.876354239209856e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.087449214844156</v>
+        <v>1.925170117559778e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.876354239209856e-07</v>
+        <v>-0.06733840094645736</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.925170117559778e-06</v>
+        <v>0.07704285763382271</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.06733840094645736</v>
+        <v>0.01046563281380982</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.07704285763382271</v>
+        <v>1.882258277774633</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01046563281380982</v>
+        <v>2.47462819712729</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.903402972527902</v>
+        <v>4.780630411214444</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.47462819712729</v>
+        <v>5.404916327235032e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.780630411214444</v>
+        <v>2712318361.538781</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>5.404916327235032e-17</v>
+        <v>4.407198785600631e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>2712318361.538781</v>
+        <v>397.6219063091527</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.407198785600631e-08</v>
+        <v>0.0001390277783222193</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>397.6219063091527</v>
+        <v>8.784354604383916</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001390277783222193</v>
+        <v>1.56069750033346</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.784354604383916</v>
+        <v>0.01072806263942517</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.56069750033346</v>
+        <v>3.777185034091838</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01072806263942517</v>
+        <v>0.9588250099511062</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.777185034091838</v>
+        <v>1.216532472862616</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9588250099511062</v>
+        <v>115</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.216532472862616</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>1.214903326409496</v>
       </c>
     </row>
@@ -3934,72 +3802,66 @@
         <v>6.623347808526318e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.512411677775766</v>
+        <v>2.71533639490617e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.160131076851078</v>
+        <v>1.920512360589373e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.71533639490617e-07</v>
+        <v>-0.06833993167639341</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.920512360589373e-06</v>
+        <v>0.07793900982559235</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06833993167639341</v>
+        <v>0.0107401617730917</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.07793900982559235</v>
+        <v>1.878698556898902</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0107401617730917</v>
+        <v>2.325340210109887</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.90366365657336</v>
+        <v>4.749391652400766</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.325340210109887</v>
+        <v>4.920911923593873e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.749391652400766</v>
+        <v>2949093606.034938</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.920911923593873e-17</v>
+        <v>4.047311101094924e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>2949093606.034938</v>
+        <v>427.9792437711712</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.047311101094924e-08</v>
+        <v>0.0001358616854217316</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>427.9792437711712</v>
+        <v>11.70128077664421</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001358616854217316</v>
+        <v>1.175778516318359</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.70128077664421</v>
+        <v>0.01860217813852744</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.175778516318359</v>
+        <v>3.96619145843263</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01860217813852744</v>
+        <v>0.9574723234440914</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.96619145843263</v>
+        <v>1.231903609190343</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9574723234440914</v>
+        <v>115</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.231903609190343</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>1.944226118325702</v>
       </c>
     </row>
@@ -4014,72 +3876,66 @@
         <v>6.16235419622436e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.52688922811939</v>
+        <v>2.568474197448808e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.240713967226752</v>
+        <v>1.91611101456297e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.568474197448808e-07</v>
+        <v>-0.06947976540824222</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.91611101456297e-06</v>
+        <v>0.07878239624885977</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.06947976540824222</v>
+        <v>0.0110293345466877</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.07878239624885977</v>
+        <v>1.88512871331868</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.0110293345466877</v>
+        <v>2.472496076593699</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.909498974439771</v>
+        <v>5.104434372931951</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.472496076593699</v>
+        <v>4.260163940867671e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.104434372931951</v>
+        <v>3416001664.965816</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.260163940867671e-17</v>
+        <v>3.497710286954671e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>3416001664.965816</v>
+        <v>497.1214005474006</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.497710286954671e-08</v>
+        <v>0.0001271048502358955</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>497.1214005474006</v>
+        <v>12.76127615317341</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001271048502358955</v>
+        <v>1.052493793463142</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>12.76127615317341</v>
+        <v>0.02069904634895045</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.052493793463142</v>
+        <v>4.027916575704199</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02069904634895045</v>
+        <v>0.956575976878316</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>4.027916575704199</v>
+        <v>1.247465058194484</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.956575976878316</v>
+        <v>130</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.247465058194484</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>2.42877703688962</v>
       </c>
     </row>
@@ -4094,72 +3950,66 @@
         <v>5.736093443821999e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.536377300775694</v>
+        <v>2.436462765764074e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.329492214042267</v>
+        <v>1.911942421806287e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.436462765764074e-07</v>
+        <v>-0.07080607219588381</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.911942421806287e-06</v>
+        <v>0.07983023838057084</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.07080607219588381</v>
+        <v>0.0113817872560534</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.07983023838057084</v>
+        <v>1.895904647272609</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.0113817872560534</v>
+        <v>2.364144955494991</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.926392528437217</v>
+        <v>5.372691469886162</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.364144955494991</v>
+        <v>3.845366670785986e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.372691469886162</v>
+        <v>3758339792.597208</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.845366670785986e-17</v>
+        <v>3.183488259335361e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>3758339792.597208</v>
+        <v>543.1625796512041</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.183488259335361e-08</v>
+        <v>0.0001142914696711763</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>543.1625796512041</v>
+        <v>9.95664826094076</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001142914696711763</v>
+        <v>1.271643955294734</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.95664826094076</v>
+        <v>0.01133026708405417</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.271643955294734</v>
+        <v>4.202723705566672</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01133026708405417</v>
+        <v>0.9573009368937992</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>4.202723705566672</v>
+        <v>1.082786939262018</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9573009368937992</v>
+        <v>155</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.082786939262018</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>155</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>2.499416078541483</v>
       </c>
     </row>
@@ -4174,72 +4024,66 @@
         <v>5.341132110467096e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.536673142521683</v>
+        <v>2.318502446788005e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.417922714097577</v>
+        <v>1.907981619517529e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.318502446788005e-07</v>
+        <v>-0.07235933671014536</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.907981619517529e-06</v>
+        <v>0.08138930821236945</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.07235933671014536</v>
+        <v>0.01185584123012138</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.08138930821236945</v>
+        <v>1.903934670232287</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01185584123012138</v>
+        <v>2.267983274972358</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.932973720943413</v>
+        <v>6.985947903222973</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.267983274972358</v>
+        <v>2.27442110093184e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>6.985947903222973</v>
+        <v>6252819576.316102</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.27442110093184e-17</v>
+        <v>1.904229529136141e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>6252819576.316102</v>
+        <v>889.2475363518475</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.904229529136141e-08</v>
+        <v>9.707833771393826e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>889.2475363518475</v>
+        <v>7.787590078969176</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>9.707833771393826e-05</v>
+        <v>1.424188489365557</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.787590078969176</v>
+        <v>0.005887467158900667</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.424188489365557</v>
+        <v>4.491987880860161</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.005887467158900667</v>
+        <v>0.9583383074751092</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>4.491987880860161</v>
+        <v>1.10539864759346</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9583383074751092</v>
+        <v>157</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.10539864759346</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>2.973711256667498</v>
       </c>
     </row>
@@ -4254,72 +4098,66 @@
         <v>4.973434089765838e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.522059524466553</v>
+        <v>2.209281363867197e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.489471017261362</v>
+        <v>1.904209092798026e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.209281363867197e-07</v>
+        <v>-0.07404834638628231</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.904209092798026e-06</v>
+        <v>0.0833115361115758</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.07404834638628231</v>
+        <v>0.01241949167354808</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.0833115361115758</v>
+        <v>1.903076173513264</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01241949167354808</v>
+        <v>2.948759772644411</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.932417315325952</v>
+        <v>6.072103245356152</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.948759772644411</v>
+        <v>1.409488108367559e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>6.072103245356152</v>
+        <v>9770123122.786034</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.409488108367559e-17</v>
+        <v>1.220331832069621e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>9770123122.786034</v>
+        <v>1345.431184541729</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.220331832069621e-08</v>
+        <v>9.341327718263732e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>1345.431184541729</v>
+        <v>6.953910918840385</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>9.341327718263732e-05</v>
+        <v>1.812544842483054</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>6.953910918840385</v>
+        <v>0.004517174361162038</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.812544842483054</v>
+        <v>4.754501814858918</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.004517174361162038</v>
+        <v>0.9588648503643621</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>4.754501814858918</v>
+        <v>1.033675686295988</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9588648503643621</v>
+        <v>174</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.033675686295988</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>174</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>3.410564233984998</v>
       </c>
     </row>
@@ -4334,72 +4172,66 @@
         <v>4.632489194236526e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.487268496856868</v>
+        <v>2.105480980133731e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.532162310258432</v>
+        <v>1.900614414957405e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.105480980133731e-07</v>
+        <v>-0.07576382497554797</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.900614414957405e-06</v>
+        <v>0.08509057484482944</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.07576382497554797</v>
+        <v>0.01297567526050382</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.08509057484482944</v>
+        <v>1.909522319529463</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01297567526050382</v>
+        <v>2.844076124617239</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.942095040142439</v>
+        <v>5.987742898436624</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.844076124617239</v>
+        <v>1.133059418020763e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.987742898436624</v>
+        <v>12169069595.68741</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.133059418020763e-17</v>
+        <v>9.826135154660685e-09</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>12169069595.68741</v>
+        <v>1677.905257085306</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>9.826135154660685e-09</v>
+        <v>7.652508086364032e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>1677.905257085306</v>
+        <v>7.437828387576569</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>7.652508086364032e-05</v>
+        <v>1.594185192652946</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.437828387576569</v>
+        <v>0.004233466276671613</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.594185192652946</v>
+        <v>5.095836573486536</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.004233466276671613</v>
+        <v>0.9599147361303755</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>5.095836573486536</v>
+        <v>1.034972935027304</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9599147361303755</v>
+        <v>180</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.034972935027304</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>4.209760253984687</v>
       </c>
     </row>
@@ -4414,72 +4246,66 @@
         <v>4.31978508597878e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.426317014198404</v>
+        <v>2.010035003683103e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1.536117112869284</v>
+        <v>1.897185985515236e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.010035003683103e-07</v>
+        <v>-0.07756565057370501</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.897185985515236e-06</v>
+        <v>0.08672156057471392</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.07756565057370501</v>
+        <v>0.01353186512310746</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.08672156057471392</v>
+        <v>1.909005952628327</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01353186512310746</v>
+        <v>3.501947924422933</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.945868551562586</v>
+        <v>5.92108620999853</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.501947924422933</v>
+        <v>1.080206543303557e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.92108620999853</v>
+        <v>12762655094.26194</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.080206543303557e-17</v>
+        <v>9.365654765148891e-09</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>12762655094.26194</v>
+        <v>1759.498371408971</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>9.365654765148891e-09</v>
+        <v>6.801200890231294e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>1759.498371408971</v>
+        <v>8.445926763691089</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>6.801200890231294e-05</v>
+        <v>1.260318075154275</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.445926763691089</v>
+        <v>0.004851546804220578</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.260318075154275</v>
+        <v>5.024899923864231</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.004851546804220578</v>
+        <v>0.9611955255771382</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>5.024899923864231</v>
+        <v>1.027282986580826</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9611955255771382</v>
+        <v>177</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.027282986580826</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>177</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>4.430712611297682</v>
       </c>
     </row>
@@ -4494,72 +4320,66 @@
         <v>4.036536899351291e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.332050054305207</v>
+        <v>1.920985350323182e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1.488415512371499</v>
+        <v>1.893910720293655e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.920985350323182e-07</v>
+        <v>-0.07933129176281226</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.893910720293655e-06</v>
+        <v>0.08813138868672239</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.07933129176281226</v>
+        <v>0.01405506903385434</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.08813138868672239</v>
+        <v>1.910247274070295</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01405506903385434</v>
+        <v>3.254184555853354</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.946373134494759</v>
+        <v>5.917236001705239</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.254184555853354</v>
+        <v>1.081612731354636e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.917236001705239</v>
+        <v>12948697088.56093</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.081612731354636e-17</v>
+        <v>9.255584362523701e-09</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>12948697088.56093</v>
+        <v>1813.526614550745</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.255584362523701e-09</v>
+        <v>7.820284568595401e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>1813.526614550745</v>
+        <v>7.95868333995112</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>7.820284568595401e-05</v>
+        <v>1.239188401029754</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.95868333995112</v>
+        <v>0.004953418335110139</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.239188401029754</v>
+        <v>4.68464725120515</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.004953418335110139</v>
+        <v>0.9621787773375942</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>4.68464725120515</v>
+        <v>1.002858578591689</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9621787773375942</v>
+        <v>183</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.002858578591689</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>183</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>3.725547257938789</v>
       </c>
     </row>
@@ -4574,72 +4394,66 @@
         <v>3.784006335407783e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.199127059521871</v>
+        <v>1.834401654151644e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1.380739422550771</v>
+        <v>1.890781411180175e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.834401654151644e-07</v>
+        <v>-0.08081171928278463</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.890781411180175e-06</v>
+        <v>0.08903400939568216</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.08081171928278463</v>
+        <v>0.01445159443985651</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.08903400939568216</v>
+        <v>1.91331649228174</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01445159443985651</v>
+        <v>3.150822404810885</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.944962493641895</v>
+        <v>6.102750418413638</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.150822404810885</v>
+        <v>1.016853421103427e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>6.102750418413638</v>
+        <v>14005981649.97745</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.016853421103427e-17</v>
+        <v>8.600073019362383e-09</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>14005981649.97745</v>
+        <v>1994.736158342414</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>8.600073019362383e-09</v>
+        <v>8.794579720020849e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1994.736158342414</v>
+        <v>7.302639070863551</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>8.794579720020849e-05</v>
+        <v>1.304153257689846</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.302639070863551</v>
+        <v>0.004690020735102823</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.304153257689846</v>
+        <v>4.520766846964131</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.004690020735102823</v>
+        <v>0.9612909027881852</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>4.520766846964131</v>
+        <v>1.001949079165029</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9612909027881852</v>
+        <v>210</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.001949079165029</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>3.224446269060716</v>
       </c>
     </row>
@@ -4654,72 +4468,66 @@
         <v>3.563915677987966e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.026380318440066</v>
+        <v>1.749917667137178e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1.215974251072828</v>
+        <v>1.887794823534246e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.749917667137178e-07</v>
+        <v>-0.08185091230638211</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.887794823534246e-06</v>
+        <v>0.08918569352563926</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.08185091230638211</v>
+        <v>0.01464732421747218</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.08918569352563926</v>
+        <v>1.914014609876779</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01464732421747218</v>
+        <v>3.103690872083427</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.946844365278274</v>
+        <v>6.277319641243428</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.103690872083427</v>
+        <v>9.610834206561439e-18</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>6.277319641243428</v>
+        <v>14763916440.11364</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>9.610834206561439e-18</v>
+        <v>8.154277722137574e-09</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>14763916440.11364</v>
+        <v>2094.90456203038</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>8.154277722137574e-09</v>
+        <v>9.446635117200846e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>2094.90456203038</v>
+        <v>7.522512023876804</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>9.446635117200846e-05</v>
+        <v>1.392055714441716</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.522512023876804</v>
+        <v>0.005345679559439825</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.392055714441716</v>
+        <v>4.474352539315585</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.005345679559439825</v>
+        <v>0.9612765361529638</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>4.474352539315585</v>
+        <v>1.023130417421241</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9612765361529638</v>
+        <v>226</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.023130417421241</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>226</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>3.277603426276811</v>
       </c>
     </row>
@@ -4734,72 +4542,66 @@
         <v>3.377534858539675e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.8174129664240941</v>
+        <v>1.668778987885186e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1.006089801649482</v>
+        <v>1.884946556835406e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.668778987885186e-07</v>
+        <v>-0.08236315254419579</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.884946556835406e-06</v>
+        <v>0.0885382379363468</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.08236315254419579</v>
+        <v>0.01461627312237541</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.0885382379363468</v>
+        <v>1.916160979400733</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01461627312237541</v>
+        <v>3.40782187290929</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.948266664655777</v>
+        <v>6.387714610742865</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>3.40782187290929</v>
+        <v>9.281508426802255e-18</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>6.387714610742865</v>
+        <v>15289226797.94127</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>9.281508426802255e-18</v>
+        <v>7.861544912174477e-09</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>15289226797.94127</v>
+        <v>2169.649642949313</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>7.861544912174477e-09</v>
+        <v>9.934745458506283e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>2169.649642949313</v>
+        <v>8.765661352627085</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>9.934745458506283e-05</v>
+        <v>1.392971808470296</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.765661352627085</v>
+        <v>0.007633542380990519</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.392971808470296</v>
+        <v>4.554223087803599</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007633542380990519</v>
+        <v>0.9612834187535167</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>4.554223087803599</v>
+        <v>0.990787088855305</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9612834187535167</v>
+        <v>241</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.990787088855305</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>3.867413269676543</v>
       </c>
     </row>
@@ -4814,72 +4616,66 @@
         <v>3.225096459702141e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.5806169024105471</v>
+        <v>1.592827679381199e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.7680038545373389</v>
+        <v>1.882229277885563e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.592827679381199e-07</v>
+        <v>-0.08233008460157769</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.882229277885563e-06</v>
+        <v>0.08720954367914038</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.08233008460157769</v>
+        <v>0.01437751278304508</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.08720954367914038</v>
+        <v>1.917493705215103</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01437751278304508</v>
+        <v>3.483103487880412</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.948200917706484</v>
+        <v>6.415607050267912</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3.483103487880412</v>
+        <v>9.200979444990876e-18</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>6.415607050267912</v>
+        <v>14696056260.4866</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>9.200979444990876e-18</v>
+        <v>8.182997319536091e-09</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>14696056260.4866</v>
+        <v>1987.172975145404</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>8.182997319536091e-09</v>
+        <v>9.719247417897443e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>1987.172975145404</v>
+        <v>9.892761282500111</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>9.719247417897443e-05</v>
+        <v>1.325304315891337</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.892761282500111</v>
+        <v>0.009511909219571558</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.325304315891337</v>
+        <v>4.786153117092648</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.009511909219571558</v>
+        <v>0.9621427286451597</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>4.786153117092648</v>
+        <v>0.9882238720688671</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9621427286451597</v>
+        <v>230</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.9882238720688671</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>230</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>4.787554766719801</v>
       </c>
     </row>
@@ -4894,72 +4690,66 @@
         <v>3.105447370352561e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.3291269252731734</v>
+        <v>1.520897377473712e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.5196002926693062</v>
+        <v>1.879634866896207e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.520897377473712e-07</v>
+        <v>-0.08164008722134997</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.879634866896207e-06</v>
+        <v>0.08526957400176489</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.08164008722134997</v>
+        <v>0.01393019252768762</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.08526957400176489</v>
+        <v>1.92275092676053</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01393019252768762</v>
+        <v>2.960124838538148</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.947473375952604</v>
+        <v>5.516523156016303</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.960124838538148</v>
+        <v>9.195951686253247e-18</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>5.516523156016303</v>
+        <v>14168671017.8171</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>9.195951686253247e-18</v>
+        <v>8.487952676821274e-09</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>14168671017.8171</v>
+        <v>1846.098689384261</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>8.487952676821274e-09</v>
+        <v>8.232627173433016e-05</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>1846.098689384261</v>
+        <v>9.001691638704843</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>8.232627173433016e-05</v>
+        <v>1.301844070971064</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.001691638704843</v>
+        <v>0.006670935039607461</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.301844070971064</v>
+        <v>5.168380630797875</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.006670935039607461</v>
+        <v>0.9620405928032798</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>5.168380630797875</v>
+        <v>1.024753738031154</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9620405928032798</v>
+        <v>228</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.024753738031154</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>5.461499577526283</v>
       </c>
     </row>
@@ -4974,72 +4764,66 @@
         <v>3.015915801731757e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.08049276977480414</v>
+        <v>1.450364229453937e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.276753700374134</v>
+        <v>1.877158870918308e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.450364229453937e-07</v>
+        <v>-0.08016361717070671</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.877158870918308e-06</v>
+        <v>0.08281509530824867</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.08016361717070671</v>
+        <v>0.01327936951593188</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.08281509530824867</v>
+        <v>1.923444999986442</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01327936951593188</v>
+        <v>2.913132573917034</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.945301210788427</v>
+        <v>5.598651213861721</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.913132573917034</v>
+        <v>1.117688414750675e-17</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>5.598651213861721</v>
+        <v>11224716598.69121</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.117688414750675e-17</v>
+        <v>1.071409660057317e-08</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>11224716598.69121</v>
+        <v>1408.223277682408</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.071409660057317e-08</v>
+        <v>6.645691617470056e-05</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>1408.223277682408</v>
+        <v>7.611358201095027</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>6.645691617470056e-05</v>
+        <v>1.421546161998512</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>7.611358201095027</v>
+        <v>0.003850033483247828</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.421546161998512</v>
+        <v>5.58155240129178</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.003850033483247828</v>
+        <v>0.9624952214677573</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>5.58155240129178</v>
+        <v>0.9011801819188323</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9624952214677573</v>
+        <v>209</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>0.9011801819188323</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>209</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>6.34358079746861</v>
       </c>
     </row>
@@ -5054,72 +4838,66 @@
         <v>2.952288353478097e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.1468848173571333</v>
+        <v>1.37866872364418e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.04820707698811999</v>
+        <v>1.874800921767091e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.37866872364418e-07</v>
+        <v>-0.07784117707395037</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.874800921767091e-06</v>
+        <v>0.08006938712944822</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.07784117707395037</v>
+        <v>0.01246581119839401</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.08006938712944822</v>
+        <v>1.924587060003047</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01246581119839401</v>
+        <v>2.781955400414929</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.947788975527351</v>
+        <v>5.456406283140597</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.781955400414929</v>
+        <v>1.279702238170779e-17</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>5.456406283140597</v>
+        <v>9676520132.014326</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.279702238170779e-17</v>
+        <v>1.242578742940972e-08</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>9676520132.014326</v>
+        <v>1198.249726462115</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.242578742940972e-08</v>
+        <v>6.635601734327748e-05</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>1198.249726462115</v>
+        <v>8.717562514658443</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>6.635601734327748e-05</v>
+        <v>1.481784564368555</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.717562514658443</v>
+        <v>0.005042785006064588</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.481784564368555</v>
+        <v>5.677516121896187</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.005042785006064588</v>
+        <v>0.9626553760165565</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>5.677516121896187</v>
+        <v>0.9212856681255684</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9626553760165565</v>
+        <v>209</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.9212856681255684</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>209</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>7.187228181887402</v>
       </c>
     </row>
@@ -5134,72 +4912,66 @@
         <v>2.909459724362415e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.337557111072204</v>
+        <v>1.304225132794983e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.1642862352682828</v>
+        <v>1.872564966777519e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.304225132794983e-07</v>
+        <v>-0.0747205685279954</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.872564966777519e-06</v>
+        <v>0.0772105870059988</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.0747205685279954</v>
+        <v>0.01154055412821499</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.0772105870059988</v>
+        <v>1.930004992362927</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01154055412821499</v>
+        <v>2.850148835833829</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.949349383882918</v>
+        <v>5.58876589548413</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.850148835833829</v>
+        <v>1.219805238268921e-17</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.58876589548413</v>
+        <v>10320820678.89661</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.219805238268921e-17</v>
+        <v>1.165811956891016e-08</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>10320820678.89661</v>
+        <v>1299.328482818951</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.165811956891016e-08</v>
+        <v>7.740828988987998e-05</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>1299.328482818951</v>
+        <v>8.794740859856446</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>7.740828988987998e-05</v>
+        <v>1.119817434437123</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.794740859856446</v>
+        <v>0.005987335131685209</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.119817434437123</v>
+        <v>5.160477834558721</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.005987335131685209</v>
+        <v>0.9630478441151911</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>5.160477834558721</v>
+        <v>0.9379334909376766</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9630478441151911</v>
+        <v>209</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.9379334909376766</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>209</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>5.907926345631502</v>
       </c>
     </row>
@@ -5576,7 +5348,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.302629332555625</v>
+        <v>1.300189540120897</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.980078175027242</v>
@@ -5665,7 +5437,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.31064228197047</v>
+        <v>1.307793612742845</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.766948198325661</v>
@@ -5754,7 +5526,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.343900714294531</v>
+        <v>1.353859697837393</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.258912495605045</v>
@@ -5843,7 +5615,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.33703647761095</v>
+        <v>1.341414762042186</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.279659012524459</v>
@@ -5932,7 +5704,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.361684342646793</v>
+        <v>1.360591289804499</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.978070295015389</v>
@@ -6021,7 +5793,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.387257511707792</v>
+        <v>1.388082230046528</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.365457899649327</v>
@@ -6110,7 +5882,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.41199498926147</v>
+        <v>1.408238387034423</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.344347399414958</v>
@@ -6199,7 +5971,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.365836221072387</v>
+        <v>1.363343656100489</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.382103606147509</v>
@@ -6288,7 +6060,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.332774921115954</v>
+        <v>1.335365241322431</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.191433817611498</v>
@@ -6377,7 +6149,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.329720360280541</v>
+        <v>1.330299983267928</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.338664370729973</v>
@@ -6466,7 +6238,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.345899679554553</v>
+        <v>1.33778055285812</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.268862735945799</v>
@@ -6555,7 +6327,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.355696197349094</v>
+        <v>1.347015078875619</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.38698371344616</v>
@@ -6644,7 +6416,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.35993247221212</v>
+        <v>1.352465027115953</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.288523164141253</v>
@@ -6733,7 +6505,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.362671523921837</v>
+        <v>1.355742424931309</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.236514546345441</v>
@@ -6822,7 +6594,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.365100729175257</v>
+        <v>1.351357306936801</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.288495628466793</v>
@@ -6911,7 +6683,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.379212839148418</v>
+        <v>1.364007355511841</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.197362737031334</v>
@@ -7000,7 +6772,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.378886394101835</v>
+        <v>1.365769165712644</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.28688488483774</v>
@@ -7089,7 +6861,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.382516969848655</v>
+        <v>1.372675202293394</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.319507171746456</v>
@@ -7178,7 +6950,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.399526938831129</v>
+        <v>1.387891517233254</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.346241688770244</v>
@@ -7267,7 +7039,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.399966203834698</v>
+        <v>1.39640553365707</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.324759050064186</v>
@@ -7356,7 +7128,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.399540910173963</v>
+        <v>1.395754185773417</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.280631923622914</v>
@@ -7445,7 +7217,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.418716810650552</v>
+        <v>1.415346681390354</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.139084083061674</v>
@@ -7534,7 +7306,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.44943418516984</v>
+        <v>1.436271299001715</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.023578583696743</v>
@@ -7623,7 +7395,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.46268285082175</v>
+        <v>1.439693510340086</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.234468953122307</v>
@@ -7712,7 +7484,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.406375367658989</v>
+        <v>1.394178769284539</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.142034643646606</v>
@@ -7801,7 +7573,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.403729816415096</v>
+        <v>1.393757079332957</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.026207306513494</v>
@@ -7890,7 +7662,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.364026718504297</v>
+        <v>1.359985527538821</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.155343612377445</v>
@@ -7979,7 +7751,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.367859494276902</v>
+        <v>1.358822615086573</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.068470178898925</v>
@@ -8068,7 +7840,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.360962240330059</v>
+        <v>1.351894981905992</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.118881666707213</v>
@@ -8157,7 +7929,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.336984230050628</v>
+        <v>1.339903730768092</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.153997592780703</v>
@@ -8246,7 +8018,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.313661000372973</v>
+        <v>1.314985608166072</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.164227460646053</v>
@@ -8335,7 +8107,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.308819016659964</v>
+        <v>1.309640001358572</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.11442356255326</v>
@@ -8424,7 +8196,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.310808017953847</v>
+        <v>1.311919233903623</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.140816249400986</v>
@@ -8513,7 +8285,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.319428701631638</v>
+        <v>1.321339101788142</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.199609178810646</v>
@@ -8602,7 +8374,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.325396760393212</v>
+        <v>1.326676034619738</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.206651366589959</v>
@@ -8691,7 +8463,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.32773259410961</v>
+        <v>1.328027608685719</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.233104108165023</v>
@@ -8780,7 +8552,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.329803701321285</v>
+        <v>1.330395097305697</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.182090070874466</v>
@@ -8869,7 +8641,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.34636848330457</v>
+        <v>1.348368747855979</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.141600310943701</v>
@@ -8958,7 +8730,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.377887124775703</v>
+        <v>1.37889027045025</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.938889006311553</v>
@@ -9047,7 +8819,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.350863118641205</v>
+        <v>1.355719141389829</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.146619611050319</v>
@@ -9136,7 +8908,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.324864882769637</v>
+        <v>1.330835984909297</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.961691573692631</v>
@@ -9225,7 +8997,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.34225471967075</v>
+        <v>1.34938703676923</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.222619160903581</v>
@@ -9314,7 +9086,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.345922624515349</v>
+        <v>1.355475614018234</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.26972004309604</v>
@@ -9403,7 +9175,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.337862693153363</v>
+        <v>1.345693057700548</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.020095874128505</v>
@@ -9492,7 +9264,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.354477745686059</v>
+        <v>1.35876900980955</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.225853538167461</v>
@@ -9581,7 +9353,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.360605917389756</v>
+        <v>1.367481083775954</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.205877235314232</v>
@@ -9670,7 +9442,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.374149372275168</v>
+        <v>1.378591925805929</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.259055329728326</v>
@@ -9759,7 +9531,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.375528900931307</v>
+        <v>1.378959526784382</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.218550597638394</v>
@@ -9848,7 +9620,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.368394330832469</v>
+        <v>1.370386251641857</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.261837430596089</v>
@@ -9937,7 +9709,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.35560883568191</v>
+        <v>1.359161857730499</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.28067842179886</v>
@@ -10026,7 +9798,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.350468865256265</v>
+        <v>1.353459404717605</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.234664458776177</v>
@@ -10115,7 +9887,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.344182159732759</v>
+        <v>1.348427112697985</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.295569362955785</v>
@@ -10204,7 +9976,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.347417630996832</v>
+        <v>1.352035197327054</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.227261568314506</v>
@@ -10293,7 +10065,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.353395918363355</v>
+        <v>1.358455518558727</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.937695480110269</v>
@@ -10382,7 +10154,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.401936026713472</v>
+        <v>1.402700236446917</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.521280555764642</v>
@@ -10471,7 +10243,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.447061795116088</v>
+        <v>1.446384692502511</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.300406009402946</v>
@@ -10560,7 +10332,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.42481633265437</v>
+        <v>1.425644242478199</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.396328717425346</v>
@@ -10649,7 +10421,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.414932227412953</v>
+        <v>1.417010133181274</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.416221001291655</v>
@@ -10738,7 +10510,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.420558406989468</v>
+        <v>1.424880694560931</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.410884623351929</v>
@@ -10827,7 +10599,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.430061595114458</v>
+        <v>1.435620995369428</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.605494073974933</v>
@@ -10916,7 +10688,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.441737959151816</v>
+        <v>1.44475458669895</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.682370987867075</v>
@@ -11005,7 +10777,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.423209528421622</v>
+        <v>1.430448137003441</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.640992630889395</v>
@@ -11094,7 +10866,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.403245867110518</v>
+        <v>1.412308736384571</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.776096175247333</v>
@@ -11183,7 +10955,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.395315071749282</v>
+        <v>1.400857218048724</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.415378953420339</v>
@@ -11272,7 +11044,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.408025461760336</v>
+        <v>1.412320178000505</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.519567216032984</v>
@@ -11361,7 +11133,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.405424304807019</v>
+        <v>1.40728227509817</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.706451581126296</v>
@@ -11450,7 +11222,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.387965221355658</v>
+        <v>1.391742691603694</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.753901050052849</v>
@@ -11539,7 +11311,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.389715405260515</v>
+        <v>1.39123846158163</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.689971453565962</v>
@@ -11628,7 +11400,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.39964421131619</v>
+        <v>1.400245236188978</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.629022359655564</v>
@@ -11717,7 +11489,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.390305430174977</v>
+        <v>1.39379894599277</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.795958644355829</v>
@@ -11806,7 +11578,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.397543275622869</v>
+        <v>1.402161781669533</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.488545811627036</v>
@@ -11895,7 +11667,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.420875305413752</v>
+        <v>1.423692390008481</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.708550511165971</v>
@@ -11984,7 +11756,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.426192688789197</v>
+        <v>1.427180669181026</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.544737334114683</v>
@@ -12073,7 +11845,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.440090168260262</v>
+        <v>1.439077333334425</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.691854702626023</v>
@@ -12162,7 +11934,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.431549129768863</v>
+        <v>1.428608926909373</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.747277652544962</v>
@@ -12251,7 +12023,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.447658646175858</v>
+        <v>1.436042375515658</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.540863739563594</v>
@@ -12340,7 +12112,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.434810023345602</v>
+        <v>1.421131214023836</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.906801072289054</v>
@@ -12429,7 +12201,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.446301017531342</v>
+        <v>1.425017755121071</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.842878702972334</v>
@@ -12518,7 +12290,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.419821119788035</v>
+        <v>1.398052568896185</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.216772168576147</v>
@@ -12607,7 +12379,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.372707752191596</v>
+        <v>1.361656990619369</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.25149706247662</v>
@@ -12696,7 +12468,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.362305871456838</v>
+        <v>1.352922998843152</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.420704841558312</v>
@@ -12982,7 +12754,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.440674248812986</v>
+        <v>1.438898362688601</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.20360982063635</v>
@@ -13071,7 +12843,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.445539592394814</v>
+        <v>1.438143785744981</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.154045906465413</v>
@@ -13160,7 +12932,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.485741601333068</v>
+        <v>1.497220265942344</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.125281772381486</v>
@@ -13249,7 +13021,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.481654595514263</v>
+        <v>1.489746681376324</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.093170423013265</v>
@@ -13338,7 +13110,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.532187182885122</v>
+        <v>1.539996713394145</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.991992603654507</v>
@@ -13427,7 +13199,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.568089475488327</v>
+        <v>1.573068450639313</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.352972896803989</v>
@@ -13516,7 +13288,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.606142805855441</v>
+        <v>1.607794591339644</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.457160587076713</v>
@@ -13605,7 +13377,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.613582083838406</v>
+        <v>1.618016649845254</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.510157714757786</v>
@@ -13694,7 +13466,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.614375422644481</v>
+        <v>1.622923188585654</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.681238460680661</v>
@@ -13783,7 +13555,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.620223449254571</v>
+        <v>1.631792932596471</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.679178031630117</v>
@@ -13872,7 +13644,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.651557439892076</v>
+        <v>1.65505035495203</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.812588456620457</v>
@@ -13961,7 +13733,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.632880688889202</v>
+        <v>1.631109696198858</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.626332122757858</v>
@@ -14050,7 +13822,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.647242328835722</v>
+        <v>1.64603343950324</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.472858402081683</v>
@@ -14139,7 +13911,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.649562874925018</v>
+        <v>1.647237290999362</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.59656930327659</v>
@@ -14228,7 +14000,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.658846760376014</v>
+        <v>1.655617337401571</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.531220609713577</v>
@@ -14317,7 +14089,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.677380251086091</v>
+        <v>1.671639895609522</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.541823470011072</v>
@@ -14406,7 +14178,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.698562160772583</v>
+        <v>1.698931164969141</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.642273693257199</v>
@@ -14495,7 +14267,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.727596774385652</v>
+        <v>1.724487765487385</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.686629270135256</v>
@@ -14584,7 +14356,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.740104006302176</v>
+        <v>1.742142199441698</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.904450560451777</v>
@@ -14673,7 +14445,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.78201724775645</v>
+        <v>1.780389296399169</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.878578854792245</v>
@@ -14762,7 +14534,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.787779012793174</v>
+        <v>1.781153989086554</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.005391664514409</v>
@@ -14851,7 +14623,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.819225886456375</v>
+        <v>1.802388294323123</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.350643432690929</v>
@@ -14940,7 +14712,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.8056803662378</v>
+        <v>1.784601805454667</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.985465257845967</v>
@@ -15029,7 +14801,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.794856458735973</v>
+        <v>1.775871679292839</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.039361290144363</v>
@@ -15118,7 +14890,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.786882591580343</v>
+        <v>1.771922843510967</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.157138900619774</v>
@@ -15207,7 +14979,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.78375095598346</v>
+        <v>1.768237194525689</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.299991902797239</v>
@@ -15296,7 +15068,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.777361614562919</v>
+        <v>1.759452042116256</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.276396875920012</v>
@@ -15385,7 +15157,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.769233097637268</v>
+        <v>1.751295229275249</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.181097606482961</v>
@@ -15474,7 +15246,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.762154734432178</v>
+        <v>1.750771367418494</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.256472790131119</v>
@@ -15563,7 +15335,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.761388219470144</v>
+        <v>1.747588287416542</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.091509644678287</v>
@@ -15652,7 +15424,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.758421796750011</v>
+        <v>1.746906148011032</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.046712903049608</v>
@@ -15741,7 +15513,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.749263085070628</v>
+        <v>1.73593405083341</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.819508243535241</v>
@@ -15830,7 +15602,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.738728046976441</v>
+        <v>1.727369090184629</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.143985664003205</v>
@@ -15919,7 +15691,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.766552614533416</v>
+        <v>1.746832918113187</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.411388667756385</v>
@@ -16008,7 +15780,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.769621356952045</v>
+        <v>1.743908790708361</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.207305973644173</v>
@@ -16097,7 +15869,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.758911147905085</v>
+        <v>1.736203030446767</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.379656890301938</v>
@@ -16186,7 +15958,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.771703759288163</v>
+        <v>1.748683614201546</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.36472271737479</v>
@@ -16275,7 +16047,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.785255215463714</v>
+        <v>1.768950893951113</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.446754112518342</v>
@@ -16364,7 +16136,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.791727546979124</v>
+        <v>1.773032851152053</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.565349065127703</v>
@@ -16453,7 +16225,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.782267201463765</v>
+        <v>1.763833483290957</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.420199466812958</v>
@@ -16542,7 +16314,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.787678895112719</v>
+        <v>1.770952645771252</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.140313173653454</v>
@@ -16631,7 +16403,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.788802011984783</v>
+        <v>1.772662684955298</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.717545237260086</v>
@@ -16720,7 +16492,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.785339612741436</v>
+        <v>1.7664780021088</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.379970948203287</v>
@@ -16809,7 +16581,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.791300315842258</v>
+        <v>1.765425338383498</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.525316818824213</v>
@@ -16898,7 +16670,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.750402663901466</v>
+        <v>1.735844215671346</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.026520316131509</v>
@@ -16987,7 +16759,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.745803129185227</v>
+        <v>1.730736372329571</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.100941466732726</v>
@@ -17076,7 +16848,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.750977836091606</v>
+        <v>1.735652024527993</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.07350366311069</v>
@@ -17165,7 +16937,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.75865390510674</v>
+        <v>1.738971042485724</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.190561990867696</v>
@@ -17254,7 +17026,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.76058489154548</v>
+        <v>1.740812760816586</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.980739389941538</v>
@@ -17343,7 +17115,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.756492564638668</v>
+        <v>1.744054499226478</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.86718743924983</v>
@@ -17432,7 +17204,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.764895440925768</v>
+        <v>1.748028799863489</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.158961934336574</v>
@@ -17521,7 +17293,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.7648017961375</v>
+        <v>1.751013760303341</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.106714331637997</v>
@@ -17610,7 +17382,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.767128054317581</v>
+        <v>1.750050024972138</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.694177988856548</v>
@@ -17699,7 +17471,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.771583730307743</v>
+        <v>1.751774336820493</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.932647073948152</v>
@@ -17788,7 +17560,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.781985807691892</v>
+        <v>1.759028684180814</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.062897546163144</v>
@@ -17877,7 +17649,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.779145701454613</v>
+        <v>1.752967489497803</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.120806946952619</v>
@@ -17966,7 +17738,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.777326916286167</v>
+        <v>1.756673977078575</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.123882675955771</v>
@@ -18055,7 +17827,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.78104537955327</v>
+        <v>1.760943859600451</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.952714946607998</v>
@@ -18144,7 +17916,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.78732196733534</v>
+        <v>1.766512081624778</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.939609833921752</v>
@@ -18233,7 +18005,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.831478061921592</v>
+        <v>1.799444933770742</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.555197766326704</v>
@@ -18322,7 +18094,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.84214482833601</v>
+        <v>1.804948662654531</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.486393652990952</v>
@@ -18411,7 +18183,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.852682200636108</v>
+        <v>1.819462629251659</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.649588502334278</v>
@@ -18500,7 +18272,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.842079702549339</v>
+        <v>1.808148662179286</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.456797930433797</v>
@@ -18589,7 +18361,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.829436756268654</v>
+        <v>1.79375062814606</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.248826586271889</v>
@@ -18678,7 +18450,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.830996231127144</v>
+        <v>1.794068350242291</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.225559692034545</v>
@@ -18767,7 +18539,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.830665371411729</v>
+        <v>1.797690873555361</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.643170257866935</v>
@@ -18856,7 +18628,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.818773020058288</v>
+        <v>1.786445700583728</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.62178009266837</v>
@@ -18945,7 +18717,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.813210612864001</v>
+        <v>1.775859060169933</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.432244663215704</v>
@@ -19034,7 +18806,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.795123252216507</v>
+        <v>1.765105049691418</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.354734424796078</v>
@@ -19123,7 +18895,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.787342866766658</v>
+        <v>1.75860695290772</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.329882757468351</v>
@@ -19212,7 +18984,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.787393156924347</v>
+        <v>1.754880318243578</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.266159985889756</v>
@@ -19301,7 +19073,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.77930297055089</v>
+        <v>1.746321235904052</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.388497729025313</v>
@@ -19390,7 +19162,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.776534011032679</v>
+        <v>1.744399037217189</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.337442945201944</v>
@@ -19479,7 +19251,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.76361484891716</v>
+        <v>1.725498246910254</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.473639448586407</v>
@@ -19568,7 +19340,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.761730559103948</v>
+        <v>1.720072017634765</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.174565368370761</v>
@@ -19657,7 +19429,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.744976114518265</v>
+        <v>1.699605602861014</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.253881575489471</v>
@@ -19746,7 +19518,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.736052826581593</v>
+        <v>1.684479225566399</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.393243898296172</v>
@@ -19835,7 +19607,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.741921822829509</v>
+        <v>1.690217998336932</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.419495574786347</v>
@@ -19924,7 +19696,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.753718999589313</v>
+        <v>1.70079012954691</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.915519373748823</v>
@@ -20013,7 +19785,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.754978529252006</v>
+        <v>1.699537346884871</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.364130107293914</v>
@@ -20102,7 +19874,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.752871877776894</v>
+        <v>1.701863174770128</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.281205543782784</v>
@@ -20388,7 +20160,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.442784590692283</v>
+        <v>1.459977981851679</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.05222349343155</v>
@@ -20477,7 +20249,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.475524638202008</v>
+        <v>1.483330568169363</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.995571990557081</v>
@@ -20566,7 +20338,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.545980021342626</v>
+        <v>1.55553151559434</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.594769676304812</v>
@@ -20655,7 +20427,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.554935161880265</v>
+        <v>1.558326938492286</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.472350005036438</v>
@@ -20744,7 +20516,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.52811724324395</v>
+        <v>1.538990890180217</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.417693142166139</v>
@@ -20833,7 +20605,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.605159095450283</v>
+        <v>1.605694460109539</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.178862845018672</v>
@@ -20922,7 +20694,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.633097491129025</v>
+        <v>1.625808667820715</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.956694523085488</v>
@@ -21011,7 +20783,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.612933150812539</v>
+        <v>1.613424623415896</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.94607509162504</v>
@@ -21100,7 +20872,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.608797354610615</v>
+        <v>1.611189034385847</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.872351503945753</v>
@@ -21189,7 +20961,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.606493337757741</v>
+        <v>1.607655319722701</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.745693787440039</v>
@@ -21278,7 +21050,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.631664163258033</v>
+        <v>1.624512207362317</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.775850552467322</v>
@@ -21367,7 +21139,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.6021450706334</v>
+        <v>1.593076217566292</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.629096497971997</v>
@@ -21456,7 +21228,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.626068120985382</v>
+        <v>1.617290939904685</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.701562953695301</v>
@@ -21545,7 +21317,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.632346606174872</v>
+        <v>1.624863448203768</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.764631621336302</v>
@@ -21634,7 +21406,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.640918733641867</v>
+        <v>1.6310256008065</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.749611692942559</v>
@@ -21723,7 +21495,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.659151667689908</v>
+        <v>1.647416706006159</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.513783290045815</v>
@@ -21812,7 +21584,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.678022079823844</v>
+        <v>1.666819747150121</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.793412743631178</v>
@@ -21901,7 +21673,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.682893328679651</v>
+        <v>1.670364271705598</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.703298773733198</v>
@@ -21990,7 +21762,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.670725957526313</v>
+        <v>1.666470558198782</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.752429378337026</v>
@@ -22079,7 +21851,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.705005707993875</v>
+        <v>1.690021147746309</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.977502767050048</v>
@@ -22168,7 +21940,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.698234741376301</v>
+        <v>1.68599838931722</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.846775768720814</v>
@@ -22257,7 +22029,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.750634941117333</v>
+        <v>1.727205724330437</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.934676606456144</v>
@@ -22346,7 +22118,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.760403346697638</v>
+        <v>1.728298392088003</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.797918755692037</v>
@@ -22435,7 +22207,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.746115457374243</v>
+        <v>1.714897570992484</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.707172860516101</v>
@@ -22524,7 +22296,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.729658344633572</v>
+        <v>1.706108297372009</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.814151143130394</v>
@@ -22613,7 +22385,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.723572390079294</v>
+        <v>1.701046930450361</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.807666245870692</v>
@@ -22702,7 +22474,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.717412954848718</v>
+        <v>1.69673023184262</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.784917028955757</v>
@@ -22791,7 +22563,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.714294024226924</v>
+        <v>1.691361508402881</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.923219541781378</v>
@@ -22880,7 +22652,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.706022983060802</v>
+        <v>1.676969171642274</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.82783055904432</v>
@@ -22969,7 +22741,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.703314178409729</v>
+        <v>1.673597805668222</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.880082542587388</v>
@@ -23058,7 +22830,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.691136952877021</v>
+        <v>1.661504744120804</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.638980285177785</v>
@@ -23147,7 +22919,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.68052801626598</v>
+        <v>1.652593795312677</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.651627661313363</v>
@@ -23236,7 +23008,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.680933397133806</v>
+        <v>1.65353783147467</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.864185512955957</v>
@@ -23325,7 +23097,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.714716360177941</v>
+        <v>1.675644535729651</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.233759631608968</v>
@@ -23414,7 +23186,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.714141054401687</v>
+        <v>1.680324672598157</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.298255242479921</v>
@@ -23503,7 +23275,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.720626978850382</v>
+        <v>1.684188460718548</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.372996430120322</v>
@@ -23592,7 +23364,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.719491015728178</v>
+        <v>1.678356517826777</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.953036350682921</v>
@@ -23681,7 +23453,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.718617580995165</v>
+        <v>1.686704419200858</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.309023927859551</v>
@@ -23770,7 +23542,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.752259189682845</v>
+        <v>1.70983685065581</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.335972964714775</v>
@@ -23859,7 +23631,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.768183472094191</v>
+        <v>1.720208454963037</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.188961429216023</v>
@@ -23948,7 +23720,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.767751951303188</v>
+        <v>1.717459591010332</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.468917668077987</v>
@@ -24037,7 +23809,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.762446961803018</v>
+        <v>1.715777090265395</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.0918506116504</v>
@@ -24126,7 +23898,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.678126664582048</v>
+        <v>1.64996034026151</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.128923179852332</v>
@@ -24215,7 +23987,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.688513508881879</v>
+        <v>1.660310915682929</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.110416442214214</v>
@@ -24304,7 +24076,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.67140986574085</v>
+        <v>1.651196664510496</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.142835769288672</v>
@@ -24393,7 +24165,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.680591386104844</v>
+        <v>1.659246022450443</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.137112635647222</v>
@@ -24482,7 +24254,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.692170104737943</v>
+        <v>1.67039659245427</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.180834252100991</v>
@@ -24571,7 +24343,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.692122910666565</v>
+        <v>1.673344305498558</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.167495474799349</v>
@@ -24660,7 +24432,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.698243970555079</v>
+        <v>1.680024384967603</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.127433325012824</v>
@@ -24749,7 +24521,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.683614949480358</v>
+        <v>1.670384224569284</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.185890067557643</v>
@@ -24838,7 +24610,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.687109637917952</v>
+        <v>1.671580678070947</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.15575977186782</v>
@@ -24927,7 +24699,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.691873801822664</v>
+        <v>1.6829141217253</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.136506809244121</v>
@@ -25016,7 +24788,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.687121021451468</v>
+        <v>1.67786732184766</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.214752750229868</v>
@@ -25105,7 +24877,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.684782740321751</v>
+        <v>1.679696310938383</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.142795127964609</v>
@@ -25194,7 +24966,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.68396157947626</v>
+        <v>1.678000033136406</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.182018659054791</v>
@@ -25283,7 +25055,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.674685196524593</v>
+        <v>1.673177262408247</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.11790426934131</v>
@@ -25372,7 +25144,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.744858630181733</v>
+        <v>1.738699242166438</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.240374482034039</v>
@@ -25461,7 +25233,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.769404091950596</v>
+        <v>1.751888347718112</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.413799788980539</v>
@@ -25550,7 +25322,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.767312130962487</v>
+        <v>1.74870265532901</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.103288782373542</v>
@@ -25639,7 +25411,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.788961636034696</v>
+        <v>1.763698667772394</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.54495704411544</v>
@@ -25728,7 +25500,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.786225827526003</v>
+        <v>1.758367914261499</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.769652393200835</v>
@@ -25817,7 +25589,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.792078183015528</v>
+        <v>1.765617579334779</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.005706023425614</v>
@@ -25906,7 +25678,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.768822962157506</v>
+        <v>1.744852114428872</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.503777582235843</v>
@@ -25995,7 +25767,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.767578844229875</v>
+        <v>1.738285958139496</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.44467144581359</v>
@@ -26084,7 +25856,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.785214863208293</v>
+        <v>1.748527921219295</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.425549800845079</v>
@@ -26173,7 +25945,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.795156319332945</v>
+        <v>1.763846977618487</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.041407902101732</v>
@@ -26262,7 +26034,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.769255170609782</v>
+        <v>1.745808954562571</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.401031013499177</v>
@@ -26351,7 +26123,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.774212781057203</v>
+        <v>1.74631600363078</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.398717898759537</v>
@@ -26440,7 +26212,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.767335872142265</v>
+        <v>1.738216295846043</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.08440419366689</v>
@@ -26529,7 +26301,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.772434870002944</v>
+        <v>1.741796517014199</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.115169576811633</v>
@@ -26618,7 +26390,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.781133417544893</v>
+        <v>1.749928319457977</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.923771536282825</v>
@@ -26707,7 +26479,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.772395237679578</v>
+        <v>1.738276949710904</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.063910265717559</v>
@@ -26796,7 +26568,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.767894635231146</v>
+        <v>1.738753983230725</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.166739741157198</v>
@@ -26885,7 +26657,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.768640669731728</v>
+        <v>1.735471984712342</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.095092177235073</v>
@@ -26974,7 +26746,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.758662626890178</v>
+        <v>1.724649824653904</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.194135623413141</v>
@@ -27063,7 +26835,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.722033180888112</v>
+        <v>1.695127057780227</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.158917361810216</v>
@@ -27152,7 +26924,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.708384488851494</v>
+        <v>1.680589677361066</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.095958814224567</v>
@@ -27241,7 +27013,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.731355230298717</v>
+        <v>1.695690004821823</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.227575157800108</v>
@@ -27330,7 +27102,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.738829919324305</v>
+        <v>1.705581512623861</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.081638871270393</v>
@@ -27419,7 +27191,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.737917113114023</v>
+        <v>1.703607104097075</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.152936686032974</v>
@@ -27508,7 +27280,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.724274932494541</v>
+        <v>1.678652516750212</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.183411598442264</v>
@@ -27794,7 +27566,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.564281704316079</v>
+        <v>1.562597070194822</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.326597711863119</v>
@@ -27883,7 +27655,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.588462568584738</v>
+        <v>1.582099348387964</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.298070805227022</v>
@@ -27972,7 +27744,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.647970729199701</v>
+        <v>1.634828145287374</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.424526015223313</v>
@@ -28061,7 +27833,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.651607206550609</v>
+        <v>1.631752475595334</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.345678280286229</v>
@@ -28150,7 +27922,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.695167112014705</v>
+        <v>1.66682345212464</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.857641283752889</v>
@@ -28239,7 +28011,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.69627377394238</v>
+        <v>1.665484889307465</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.841843098747699</v>
@@ -28328,7 +28100,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.682844535335177</v>
+        <v>1.650725937743119</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.783744075463467</v>
@@ -28417,7 +28189,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.668691729823039</v>
+        <v>1.641624719764346</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.833021214179977</v>
@@ -28506,7 +28278,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.657805253975532</v>
+        <v>1.632200056043113</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.782747739573812</v>
@@ -28595,7 +28367,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.653797695092695</v>
+        <v>1.625643799000026</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.644545061055295</v>
@@ -28684,7 +28456,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.666073265975165</v>
+        <v>1.624424494045062</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.511030722372161</v>
@@ -28773,7 +28545,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.637549002298194</v>
+        <v>1.603069716685395</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.663691184442019</v>
@@ -28862,7 +28634,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.646189083647212</v>
+        <v>1.614922031135501</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.552445881365227</v>
@@ -28951,7 +28723,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.646519930115115</v>
+        <v>1.620081695570732</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.716131915282263</v>
@@ -29040,7 +28812,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.643991028664531</v>
+        <v>1.610306104920567</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.668219683851382</v>
@@ -29129,7 +28901,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.649268168839457</v>
+        <v>1.614095506858733</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.674779833293742</v>
@@ -29218,7 +28990,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.646326991648597</v>
+        <v>1.612631121538428</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.542656806045139</v>
@@ -29307,7 +29079,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.651788167494378</v>
+        <v>1.613329422685726</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.585899775197038</v>
@@ -29396,7 +29168,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.662190666662239</v>
+        <v>1.620422941030625</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.705865678201703</v>
@@ -29485,7 +29257,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.695936518533043</v>
+        <v>1.644848206886574</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.313059015863499</v>
@@ -29574,7 +29346,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.696066052029603</v>
+        <v>1.645903748774372</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.216406019444096</v>
@@ -29663,7 +29435,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.721875665578635</v>
+        <v>1.660362334531469</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.572472340785949</v>
@@ -29752,7 +29524,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.719001005405745</v>
+        <v>1.641322863579253</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.81119301453083</v>
@@ -29841,7 +29613,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.724743112997184</v>
+        <v>1.64407067985154</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.1121128045406</v>
@@ -29930,7 +29702,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.720092939451707</v>
+        <v>1.641477834034114</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.594421821650528</v>
@@ -30019,7 +29791,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.720339344382889</v>
+        <v>1.640568669601794</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.485697645907189</v>
@@ -30108,7 +29880,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.71953301456116</v>
+        <v>1.635803985233551</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.407101468919419</v>
@@ -30197,7 +29969,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.721206523900789</v>
+        <v>1.634174885058096</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.453558664828039</v>
@@ -30286,7 +30058,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.713535968226634</v>
+        <v>1.625745387193212</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.473489175573374</v>
@@ -30375,7 +30147,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.712807547363216</v>
+        <v>1.632342656210332</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.470622940475997</v>
@@ -30464,7 +30236,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.688264906926471</v>
+        <v>1.610995270310768</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.217662274659288</v>
@@ -30553,7 +30325,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.699119589149708</v>
+        <v>1.6230799065314</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.848944130639172</v>
@@ -30642,7 +30414,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.690893581657442</v>
+        <v>1.612124492202482</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.253082251386413</v>
@@ -30731,7 +30503,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.693246068755059</v>
+        <v>1.612379667121224</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.368705966142141</v>
@@ -30820,7 +30592,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.694387422495067</v>
+        <v>1.608322741188885</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.262502193080191</v>
@@ -30909,7 +30681,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.683858859670636</v>
+        <v>1.603272474416629</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.36354140462989</v>
@@ -30998,7 +30770,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.690850807252851</v>
+        <v>1.614342804804569</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.972231785116134</v>
@@ -31087,7 +30859,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.684060954423638</v>
+        <v>1.626026138908877</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.233783971687907</v>
@@ -31176,7 +30948,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.695272335649892</v>
+        <v>1.632368232981424</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.028696698242953</v>
@@ -31265,7 +31037,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.696209260335147</v>
+        <v>1.63667932873428</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.974364737704816</v>
@@ -31354,7 +31126,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.693087552323896</v>
+        <v>1.638125750411611</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.240881777623277</v>
@@ -31443,7 +31215,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.689061587632512</v>
+        <v>1.640802641150352</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.023356374910596</v>
@@ -31532,7 +31304,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.601028481330824</v>
+        <v>1.568221822462424</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.039290127657591</v>
@@ -31621,7 +31393,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.604733091639524</v>
+        <v>1.571818872817571</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.014245792491055</v>
@@ -31710,7 +31482,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.60619733945741</v>
+        <v>1.572013284406772</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.052889365334051</v>
@@ -31799,7 +31571,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.620451572086844</v>
+        <v>1.588083111668063</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.034610749509197</v>
@@ -31888,7 +31660,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.621005183738581</v>
+        <v>1.580556024551219</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.057843083234529</v>
@@ -31977,7 +31749,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.634670810458552</v>
+        <v>1.599012648311472</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.124587879381667</v>
@@ -32066,7 +31838,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.645034824144301</v>
+        <v>1.607352626197764</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.047060478663735</v>
@@ -32155,7 +31927,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.642536938041271</v>
+        <v>1.610717932957694</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.088655550935663</v>
@@ -32244,7 +32016,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.648456216781079</v>
+        <v>1.6131200365765</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.124241023302819</v>
@@ -32333,7 +32105,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.648973532877693</v>
+        <v>1.611580488356585</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.114124650380281</v>
@@ -32422,7 +32194,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.655715816723893</v>
+        <v>1.617818180782073</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.153722272954445</v>
@@ -32511,7 +32283,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.652032881805384</v>
+        <v>1.617252708848387</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.140806218202107</v>
@@ -32600,7 +32372,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.650660769097685</v>
+        <v>1.61131355572821</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.157052218737005</v>
@@ -32689,7 +32461,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.648495318410609</v>
+        <v>1.612517431038612</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.114229612107271</v>
@@ -32778,7 +32550,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.708302802747895</v>
+        <v>1.660554594663083</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.122871144835432</v>
@@ -32867,7 +32639,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.732809819351926</v>
+        <v>1.674099166053285</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.412940621396709</v>
@@ -32956,7 +32728,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.736445882140226</v>
+        <v>1.679773181146154</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.381521517243911</v>
@@ -33045,7 +32817,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.744930839465418</v>
+        <v>1.683806854041672</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.038516092296189</v>
@@ -33134,7 +32906,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.748388751465192</v>
+        <v>1.685534431286412</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.447197686993129</v>
@@ -33223,7 +32995,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.75102297699593</v>
+        <v>1.693928492536276</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.976130834638284</v>
@@ -33312,7 +33084,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.723101127474116</v>
+        <v>1.670044766566408</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.289083940629179</v>
@@ -33401,7 +33173,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.713449360696626</v>
+        <v>1.660436423904389</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.025197358743432</v>
@@ -33490,7 +33262,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.728117684721564</v>
+        <v>1.664810091467498</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.109309059737748</v>
@@ -33579,7 +33351,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.733014252808171</v>
+        <v>1.6766705647891</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.794402750482821</v>
@@ -33668,7 +33440,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.71773592495301</v>
+        <v>1.668913648100519</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.236918105080605</v>
@@ -33757,7 +33529,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.722260137928595</v>
+        <v>1.671990425015329</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.869836409467898</v>
@@ -33846,7 +33618,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.721363616291439</v>
+        <v>1.672720995435766</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.981765104035189</v>
@@ -33935,7 +33707,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.720345718041671</v>
+        <v>1.676322226997654</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.301203396088686</v>
@@ -34024,7 +33796,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.729254836447934</v>
+        <v>1.676490423054801</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.952416799090302</v>
@@ -34113,7 +33885,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.727734006107101</v>
+        <v>1.675264634392688</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.894395399083325</v>
@@ -34202,7 +33974,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.723530112199182</v>
+        <v>1.671505657862799</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.079579152176335</v>
@@ -34291,7 +34063,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.722576772247334</v>
+        <v>1.674348635662724</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.990979546075803</v>
@@ -34380,7 +34152,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.718407280633411</v>
+        <v>1.671551200288518</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.934936893351841</v>
@@ -34469,7 +34241,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.707329759764906</v>
+        <v>1.651677414310335</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.171293864363621</v>
@@ -34558,7 +34330,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.701584886106308</v>
+        <v>1.649839746940913</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.987537660908239</v>
@@ -34647,7 +34419,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.722965778247851</v>
+        <v>1.663744403670152</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.56399874151047</v>
@@ -34736,7 +34508,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.733792225851651</v>
+        <v>1.675646030887804</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.284639507328504</v>
@@ -34825,7 +34597,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.723505173598436</v>
+        <v>1.667864059541698</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.505708705969233</v>
@@ -34914,7 +34686,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.728901752697046</v>
+        <v>1.666765029058451</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.522860435024674</v>
@@ -35200,7 +34972,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.489471836875953</v>
+        <v>1.469036475323944</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.021618952202414</v>
@@ -35289,7 +35061,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.476076372089221</v>
+        <v>1.454984577145798</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.86483184337446</v>
@@ -35378,7 +35150,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.519000391970213</v>
+        <v>1.505910007306234</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.379170255155821</v>
@@ -35467,7 +35239,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.511609344397681</v>
+        <v>1.500424874277677</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.273257442887278</v>
@@ -35556,7 +35328,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.542944960154045</v>
+        <v>1.524877744181463</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.421462932200809</v>
@@ -35645,7 +35417,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.565684341168964</v>
+        <v>1.541994008620013</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.57701493698817</v>
@@ -35734,7 +35506,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.59527579426371</v>
+        <v>1.561990506024179</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.662725343506401</v>
@@ -35823,7 +35595,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.583685376167297</v>
+        <v>1.551321299913196</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.633316703903295</v>
@@ -35912,7 +35684,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.582776678777721</v>
+        <v>1.550059350197998</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.58884020184513</v>
@@ -36001,7 +35773,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.588200964247815</v>
+        <v>1.548484479764737</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.586618630423501</v>
@@ -36090,7 +35862,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.625929469950213</v>
+        <v>1.569324359130591</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.796310728009292</v>
@@ -36179,7 +35951,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.623606583761932</v>
+        <v>1.562100869208727</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.604137419606228</v>
@@ -36268,7 +36040,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.634792890354625</v>
+        <v>1.567827473001473</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.0038293700922</v>
@@ -36357,7 +36129,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.63982032069463</v>
+        <v>1.577389567013635</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.648095173878667</v>
@@ -36446,7 +36218,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.64079973771882</v>
+        <v>1.569911415655426</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.96481309591073</v>
@@ -36535,7 +36307,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.649044812800527</v>
+        <v>1.576262852149988</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.495315675233844</v>
@@ -36624,7 +36396,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.652095198400738</v>
+        <v>1.591406756959667</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.055886953351946</v>
@@ -36713,7 +36485,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.663967315208472</v>
+        <v>1.598078952097278</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.063556237346901</v>
@@ -36802,7 +36574,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.660089128453153</v>
+        <v>1.596846373875306</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.127808434620526</v>
@@ -36891,7 +36663,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.685105679235642</v>
+        <v>1.612085386477304</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.90715012053982</v>
@@ -36980,7 +36752,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.680787279514411</v>
+        <v>1.613420375732808</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.763252860112899</v>
@@ -37069,7 +36841,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.704666324464151</v>
+        <v>1.625464406241192</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.994218747662181</v>
@@ -37158,7 +36930,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.710141073194681</v>
+        <v>1.622116597769758</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.249033549531319</v>
@@ -37247,7 +37019,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.693478603171002</v>
+        <v>1.607905649863601</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.680149749839711</v>
@@ -37336,7 +37108,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.684960620436744</v>
+        <v>1.605507834128284</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.963653799814677</v>
@@ -37425,7 +37197,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.689757799277636</v>
+        <v>1.607856141613051</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.820334351887861</v>
@@ -37514,7 +37286,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.693322774825593</v>
+        <v>1.606366734189528</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.902070903129687</v>
@@ -37603,7 +37375,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.705158997541811</v>
+        <v>1.616135062574377</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.898207991940956</v>
@@ -37692,7 +37464,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.697949099379596</v>
+        <v>1.612108901389273</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.887416005045975</v>
@@ -37781,7 +37553,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.682083951850724</v>
+        <v>1.607841375405095</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.013557613820939</v>
@@ -37870,7 +37642,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.672568732561633</v>
+        <v>1.601573534642162</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.759907177038717</v>
@@ -37959,7 +37731,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.664275876189381</v>
+        <v>1.594297510505677</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.14326012643638</v>
@@ -38048,7 +37820,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.65938537086521</v>
+        <v>1.590272527757886</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.938352915836285</v>
@@ -38137,7 +37909,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.680712555474473</v>
+        <v>1.60243833975526</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.949089207559419</v>
@@ -38226,7 +37998,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.680666770871091</v>
+        <v>1.603306601293182</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.311059626395997</v>
@@ -38315,7 +38087,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.680681113847819</v>
+        <v>1.604368155776487</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.371606373397681</v>
@@ -38404,7 +38176,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.68274270347015</v>
+        <v>1.604485745797604</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.248482347525557</v>
@@ -38493,7 +38265,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.679796783447554</v>
+        <v>1.613579598594253</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.285785374829838</v>
@@ -38582,7 +38354,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.69023433930763</v>
+        <v>1.614626688240489</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.932522205784513</v>
@@ -38671,7 +38443,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.700393147350395</v>
+        <v>1.622665441528995</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.590797901303694</v>
@@ -38760,7 +38532,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.698011721516855</v>
+        <v>1.623585025611883</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.504134456869041</v>
@@ -38849,7 +38621,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.675422509598907</v>
+        <v>1.617202556401014</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.06336322985296</v>
@@ -38938,7 +38710,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.5809968259118</v>
+        <v>1.538815917186974</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.028702606577104</v>
@@ -39027,7 +38799,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.590081094260535</v>
+        <v>1.540554367257833</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.051608855748073</v>
@@ -39116,7 +38888,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.594670378371393</v>
+        <v>1.53907877958913</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.036820642581994</v>
@@ -39205,7 +38977,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.591225830952252</v>
+        <v>1.530960909967796</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.073980777917533</v>
@@ -39294,7 +39066,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.595849375501907</v>
+        <v>1.533472192961729</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.078207500587435</v>
@@ -39383,7 +39155,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.599758751856176</v>
+        <v>1.539717066890042</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.089515921541593</v>
@@ -39472,7 +39244,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.597055820374005</v>
+        <v>1.535629085512873</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.076123225634678</v>
@@ -39561,7 +39333,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.594723958040536</v>
+        <v>1.536680509183443</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.033580562143708</v>
@@ -39650,7 +39422,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.596185632691416</v>
+        <v>1.532881699086908</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.036928585373179</v>
@@ -39739,7 +39511,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.59842808963086</v>
+        <v>1.538622130605401</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.071912124692282</v>
@@ -39828,7 +39600,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.595960464806093</v>
+        <v>1.542626304495157</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.108791812576736</v>
@@ -39917,7 +39689,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.597035403607791</v>
+        <v>1.546853420178178</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.03195432808069</v>
@@ -40006,7 +39778,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.59265461972284</v>
+        <v>1.535484918792923</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.051702769894274</v>
@@ -40095,7 +39867,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.583694098474785</v>
+        <v>1.533856987465255</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.018962924378706</v>
@@ -40184,7 +39956,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.640641077350642</v>
+        <v>1.580601589564491</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.967649435666657</v>
@@ -40273,7 +40045,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.67145167295647</v>
+        <v>1.601099450272183</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.674638616973504</v>
@@ -40362,7 +40134,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.671212235356039</v>
+        <v>1.610050769884011</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.698504615321426</v>
@@ -40451,7 +40223,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.68090541023683</v>
+        <v>1.625312849090753</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.530006935709678</v>
@@ -40540,7 +40312,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.702234442795195</v>
+        <v>1.63984102185987</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.507087317658493</v>
@@ -40629,7 +40401,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.698542841038358</v>
+        <v>1.637050275104871</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.672319160495149</v>
@@ -40718,7 +40490,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.697049198375546</v>
+        <v>1.635469693995969</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.104930957262452</v>
@@ -40807,7 +40579,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.696194343284445</v>
+        <v>1.619116460587436</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.163337153627775</v>
@@ -40896,7 +40668,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.698366408155135</v>
+        <v>1.617888822844957</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.351048521279034</v>
@@ -40985,7 +40757,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.701858327160614</v>
+        <v>1.62042433403575</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.583784781369453</v>
@@ -41074,7 +40846,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.695567904540145</v>
+        <v>1.618094961854642</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.54265783361989</v>
@@ -41163,7 +40935,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.702810460676916</v>
+        <v>1.619363847487129</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.506483132941026</v>
@@ -41252,7 +41024,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.694107907905816</v>
+        <v>1.61321347365902</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.282880029618353</v>
@@ -41341,7 +41113,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.700638213097299</v>
+        <v>1.62183230540096</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.970671729061694</v>
@@ -41430,7 +41202,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.700630614723582</v>
+        <v>1.619653926833623</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.504510967728701</v>
@@ -41519,7 +41291,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.706527305841981</v>
+        <v>1.620060164482011</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.382080848236833</v>
@@ -41608,7 +41380,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.696804094501564</v>
+        <v>1.611439533820646</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.351580062133993</v>
@@ -41697,7 +41469,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.698356971518056</v>
+        <v>1.608528424100373</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.380290244208026</v>
@@ -41786,7 +41558,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.702043039009092</v>
+        <v>1.596272623374679</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.59368869508592</v>
@@ -41875,7 +41647,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.682658145112875</v>
+        <v>1.574922946987334</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.176004557005323</v>
@@ -41964,7 +41736,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.68263030824678</v>
+        <v>1.574798173748356</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.605465982567909</v>
@@ -42053,7 +41825,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.679662784792717</v>
+        <v>1.573756865882279</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.493861507891795</v>
@@ -42142,7 +41914,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.682249705461072</v>
+        <v>1.591304786741398</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.512976298157128</v>
@@ -42231,7 +42003,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.681670645948423</v>
+        <v>1.592722989680041</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.397439461157349</v>
@@ -42320,7 +42092,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.678484470340113</v>
+        <v>1.595633563854635</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.369755248761662</v>
@@ -42606,7 +42378,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.37773722569523</v>
+        <v>1.39546218701643</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.776953544001366</v>
@@ -42695,7 +42467,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.383775897347684</v>
+        <v>1.400093857873445</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.732709850558221</v>
@@ -42784,7 +42556,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.393596120842715</v>
+        <v>1.410182827754414</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.743440917599692</v>
@@ -42873,7 +42645,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.391151948436469</v>
+        <v>1.409765201015734</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.767469250079946</v>
@@ -42962,7 +42734,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.377268303324571</v>
+        <v>1.394439731875962</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.743572072558732</v>
@@ -43051,7 +42823,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.401565736954361</v>
+        <v>1.415888316881899</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.721157024831398</v>
@@ -43140,7 +42912,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.394941063136875</v>
+        <v>1.401609962041668</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.709484337595636</v>
@@ -43229,7 +43001,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.379368157139924</v>
+        <v>1.389940649119526</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.701893969981492</v>
@@ -43318,7 +43090,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.375242827846479</v>
+        <v>1.384416418700415</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.702563812695991</v>
@@ -43407,7 +43179,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.374361142922263</v>
+        <v>1.383174320301302</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.734018346142851</v>
@@ -43496,7 +43268,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.443660598184659</v>
+        <v>1.469006949183241</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.233208553036109</v>
@@ -43585,7 +43357,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.411496737690999</v>
+        <v>1.436906635286111</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.186589564617408</v>
@@ -43674,7 +43446,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.446689011215269</v>
+        <v>1.472354549093816</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.180225119162136</v>
@@ -43763,7 +43535,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.457357017233826</v>
+        <v>1.483722263403583</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.154466621937004</v>
@@ -43852,7 +43624,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.44883295206491</v>
+        <v>1.475621453556181</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.242951351506701</v>
@@ -43941,7 +43713,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.452629416137595</v>
+        <v>1.47750652618921</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.163641638243493</v>
@@ -44030,7 +43802,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.466616049113874</v>
+        <v>1.495030979741594</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.246783408349799</v>
@@ -44119,7 +43891,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.479510933677178</v>
+        <v>1.506214293459999</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.229850749520689</v>
@@ -44208,7 +43980,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.498414329579205</v>
+        <v>1.520744039030353</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.17162263210504</v>
@@ -44297,7 +44069,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571471496642299</v>
+        <v>1.588161164519802</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.569187146886522</v>
@@ -44386,7 +44158,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.570192937892466</v>
+        <v>1.590018392513351</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.504125608292547</v>
@@ -44475,7 +44247,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.632861796511055</v>
+        <v>1.651293178214049</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.692827427086224</v>
@@ -44564,7 +44336,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.633132123137113</v>
+        <v>1.648543658243701</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.669485132496029</v>
@@ -44653,7 +44425,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.61542088858623</v>
+        <v>1.628500533199029</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.430363299207509</v>
@@ -44742,7 +44514,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.625947635543493</v>
+        <v>1.643090910019184</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.530116358125331</v>
@@ -44831,7 +44603,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.64558463755283</v>
+        <v>1.659451183945513</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.643998512935872</v>
@@ -44920,7 +44692,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.638981260124873</v>
+        <v>1.653517099604657</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.617387848398069</v>
@@ -45009,7 +44781,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.630287710612594</v>
+        <v>1.643526367475477</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.660402443924396</v>
@@ -45098,7 +44870,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.628432593994545</v>
+        <v>1.639901800381666</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.64928305820948</v>
@@ -45187,7 +44959,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.619575676201697</v>
+        <v>1.63314993135264</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.690095156606608</v>
@@ -45276,7 +45048,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.577160333170782</v>
+        <v>1.599803001866602</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.398809433556158</v>
@@ -45365,7 +45137,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.570017564263589</v>
+        <v>1.590570767927077</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.230392251317098</v>
@@ -45454,7 +45226,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.563875684852182</v>
+        <v>1.588683132294151</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.337208569764504</v>
@@ -45543,7 +45315,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.57906964413867</v>
+        <v>1.602105899405028</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.468397004879129</v>
@@ -45632,7 +45404,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.577042096834747</v>
+        <v>1.604272994397454</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.371330163172396</v>
@@ -45721,7 +45493,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.573405932255981</v>
+        <v>1.598352512810349</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.417681049790842</v>
@@ -45810,7 +45582,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588718977178972</v>
+        <v>1.606385453601192</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.21418494068342</v>
@@ -45899,7 +45671,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.596856052798578</v>
+        <v>1.606044489717003</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.337574489743882</v>
@@ -45988,7 +45760,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.644712584048134</v>
+        <v>1.648617010767961</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.358060978551013</v>
@@ -46077,7 +45849,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.654583538470635</v>
+        <v>1.656139170820691</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.346754414122014</v>
@@ -46166,7 +45938,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.637926493904095</v>
+        <v>1.640452125906491</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.408502550576806</v>
@@ -46255,7 +46027,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.621078877629758</v>
+        <v>1.6333821878741</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.136252662295297</v>
@@ -46344,7 +46116,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.567832617795409</v>
+        <v>1.584078675214665</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.197000225142207</v>
@@ -46433,7 +46205,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.571677596216526</v>
+        <v>1.587897665422783</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.256537984839617</v>
@@ -46522,7 +46294,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.58654063790998</v>
+        <v>1.594998968010213</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.204067602128261</v>
@@ -46611,7 +46383,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609219170510955</v>
+        <v>1.616940472050293</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.166917295522062</v>
@@ -46700,7 +46472,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.619221792326655</v>
+        <v>1.625304128468568</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.32104869516346</v>
@@ -46789,7 +46561,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.617129845460655</v>
+        <v>1.629435433620842</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.293377617590191</v>
@@ -46878,7 +46650,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.619560456614221</v>
+        <v>1.635135428909266</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.326563053064934</v>
@@ -46967,7 +46739,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.621543326284109</v>
+        <v>1.636614046636679</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.219847390859083</v>
@@ -47056,7 +46828,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.626167141848595</v>
+        <v>1.641606795518518</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.281444822485693</v>
@@ -47145,7 +46917,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.622746615588985</v>
+        <v>1.643985038426097</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.254731179508918</v>
@@ -47234,7 +47006,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.621262211244956</v>
+        <v>1.649938489689199</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.363836418864504</v>
@@ -47323,7 +47095,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.620488686561685</v>
+        <v>1.647767926705956</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.252770541695302</v>
@@ -47412,7 +47184,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.616189031279341</v>
+        <v>1.645787751992458</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.169705274464551</v>
@@ -47501,7 +47273,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.606010884645269</v>
+        <v>1.635728747902842</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.220392988883237</v>
@@ -47590,7 +47362,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.643571233539849</v>
+        <v>1.671869819016081</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.370025727286</v>
@@ -47679,7 +47451,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.65245429462852</v>
+        <v>1.67930503548983</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.346677558320764</v>
@@ -47768,7 +47540,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.652276169744078</v>
+        <v>1.681968798965525</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.03289052316311</v>
@@ -47857,7 +47629,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.660583554450976</v>
+        <v>1.691146233782651</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.10447464167279</v>
@@ -47946,7 +47718,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.666178784506813</v>
+        <v>1.698300649160909</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.08097993913826</v>
@@ -48035,7 +47807,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.681315328356688</v>
+        <v>1.709646115264728</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.268764559109799</v>
@@ -48124,7 +47896,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.651489733486097</v>
+        <v>1.677603018149384</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.553695124619329</v>
@@ -48213,7 +47985,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.629349894993955</v>
+        <v>1.655585978998234</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.482742061522258</v>
@@ -48302,7 +48074,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.632052554420416</v>
+        <v>1.660725487294562</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.479606257493028</v>
@@ -48391,7 +48163,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.62665769868644</v>
+        <v>1.656279540386457</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.550393171444359</v>
@@ -48480,7 +48252,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.615740083032676</v>
+        <v>1.645648126887894</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.667043656426308</v>
@@ -48569,7 +48341,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.623085976651759</v>
+        <v>1.652244280250207</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.49176267436392</v>
@@ -48658,7 +48430,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.62297760535894</v>
+        <v>1.650722175917106</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.532543608698642</v>
@@ -48747,7 +48519,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.628254639348896</v>
+        <v>1.654807517071823</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.574058103361228</v>
@@ -48836,7 +48608,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.652256511797265</v>
+        <v>1.675803370978725</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.671245232403492</v>
@@ -48925,7 +48697,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.672646274419642</v>
+        <v>1.692291412580688</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.731621789250475</v>
@@ -49014,7 +48786,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.657579527326934</v>
+        <v>1.682576347310484</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.618395740069169</v>
@@ -49103,7 +48875,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.652739602197172</v>
+        <v>1.678546785965713</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.627346726345498</v>
@@ -49192,7 +48964,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.654060286574787</v>
+        <v>1.678708368504795</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.541814021674954</v>
@@ -49281,7 +49053,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.628515601854025</v>
+        <v>1.649344817654194</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.499115616154418</v>
@@ -49370,7 +49142,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.623739955071601</v>
+        <v>1.644379211261389</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.464566078787384</v>
@@ -49459,7 +49231,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.657723676319196</v>
+        <v>1.675298476062968</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.916789536713578</v>
@@ -49548,7 +49320,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.654492872461279</v>
+        <v>1.677297495439596</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.845052308667768</v>
@@ -49637,7 +49409,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.627834019483377</v>
+        <v>1.65689033897408</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.823735512792184</v>
@@ -49726,7 +49498,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.617821460008475</v>
+        <v>1.649146907927555</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.729141201211038</v>
